--- a/planilha_2.xlsx
+++ b/planilha_2.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eduar\Desktop\Github\Pessoal\compare-sheets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC06FBA1-5ADD-46F2-9A7A-D4D7D67C4949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20925" windowHeight="9345"/>
+    <workbookView xWindow="-20610" yWindow="4425" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FATURAMENTO GIPA MATRIZ" sheetId="1" r:id="rId1"/>
@@ -15,7 +21,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'FATURAMENTO GIPA MATRIZ'!$A$1:$AX$286</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2371,16 +2390,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="dd/mm/yyyy\ h:mm"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="181" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy\ h:mm"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -2401,151 +2416,22 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2554,7 +2440,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.8"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2576,194 +2462,8 @@
         <bgColor rgb="FFFFCC00"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -2771,358 +2471,78 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+  </cellStyleXfs>
+  <cellXfs count="16">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-  </cellStyleXfs>
-  <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
-    <cellStyle name="40% - Ênfase 4" xfId="3" builtinId="43"/>
-    <cellStyle name="Porcentagem" xfId="4" builtinId="5"/>
-    <cellStyle name="Célula Vinculada" xfId="5" builtinId="24"/>
-    <cellStyle name="Célula de Verificação" xfId="6" builtinId="23"/>
-    <cellStyle name="Moeda [0]" xfId="7" builtinId="7"/>
-    <cellStyle name="20% - Ênfase 3" xfId="8" builtinId="38"/>
-    <cellStyle name="Moeda" xfId="9" builtinId="4"/>
-    <cellStyle name="Hyperlink seguido" xfId="10" builtinId="9"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8"/>
-    <cellStyle name="40% - Ênfase 2" xfId="12" builtinId="35"/>
-    <cellStyle name="Observação" xfId="13" builtinId="10"/>
-    <cellStyle name="40% - Ênfase 6" xfId="14" builtinId="51"/>
-    <cellStyle name="Texto de Aviso" xfId="15" builtinId="11"/>
-    <cellStyle name="Título" xfId="16" builtinId="15"/>
-    <cellStyle name="Texto Explicativo" xfId="17" builtinId="53"/>
-    <cellStyle name="Ênfase 3" xfId="18" builtinId="37"/>
-    <cellStyle name="Título 1" xfId="19" builtinId="16"/>
-    <cellStyle name="Ênfase 4" xfId="20" builtinId="41"/>
-    <cellStyle name="Título 2" xfId="21" builtinId="17"/>
-    <cellStyle name="Ênfase 5" xfId="22" builtinId="45"/>
-    <cellStyle name="Título 3" xfId="23" builtinId="18"/>
-    <cellStyle name="Ênfase 6" xfId="24" builtinId="49"/>
-    <cellStyle name="Título 4" xfId="25" builtinId="19"/>
-    <cellStyle name="Entrada" xfId="26" builtinId="20"/>
-    <cellStyle name="Saída" xfId="27" builtinId="21"/>
-    <cellStyle name="Cálculo" xfId="28" builtinId="22"/>
-    <cellStyle name="Total" xfId="29" builtinId="25"/>
-    <cellStyle name="40% - Ênfase 1" xfId="30" builtinId="31"/>
-    <cellStyle name="Bom" xfId="31" builtinId="26"/>
-    <cellStyle name="Ruim" xfId="32" builtinId="27"/>
-    <cellStyle name="Neutro" xfId="33" builtinId="28"/>
-    <cellStyle name="20% - Ênfase 5" xfId="34" builtinId="46"/>
-    <cellStyle name="Ênfase 1" xfId="35" builtinId="29"/>
-    <cellStyle name="20% - Ênfase 1" xfId="36" builtinId="30"/>
-    <cellStyle name="60% - Ênfase 1" xfId="37" builtinId="32"/>
-    <cellStyle name="20% - Ênfase 6" xfId="38" builtinId="50"/>
-    <cellStyle name="Ênfase 2" xfId="39" builtinId="33"/>
-    <cellStyle name="20% - Ênfase 2" xfId="40" builtinId="34"/>
-    <cellStyle name="60% - Ênfase 2" xfId="41" builtinId="36"/>
-    <cellStyle name="40% - Ênfase 3" xfId="42" builtinId="39"/>
-    <cellStyle name="60% - Ênfase 3" xfId="43" builtinId="40"/>
-    <cellStyle name="20% - Ênfase 4" xfId="44" builtinId="42"/>
-    <cellStyle name="60% - Ênfase 4" xfId="45" builtinId="44"/>
-    <cellStyle name="40% - Ênfase 5" xfId="46" builtinId="47"/>
-    <cellStyle name="60% - Ênfase 5" xfId="47" builtinId="48"/>
-    <cellStyle name="60% - Ênfase 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Demonst. ICMS 12-2022 (M)"/>
@@ -3332,42 +2752,42 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AX1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="AW7" sqref="AW7"/>
+    <sheetView tabSelected="1" topLeftCell="B273" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G282" sqref="G282"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.2857142857143" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="14.8571428571429" customWidth="1"/>
-    <col min="3" max="3" width="6.14285714285714" customWidth="1"/>
-    <col min="4" max="4" width="29.1428571428571" customWidth="1"/>
-    <col min="5" max="5" width="15.4285714285714" customWidth="1"/>
-    <col min="6" max="6" width="14.2857142857143" customWidth="1"/>
-    <col min="7" max="7" width="122.857142857143" customWidth="1"/>
-    <col min="8" max="9" width="10.2857142857143" hidden="1" customWidth="1"/>
-    <col min="10" max="13" width="12.8571428571429" hidden="1" customWidth="1"/>
-    <col min="14" max="17" width="10.2857142857143" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="12.8571428571429" hidden="1" customWidth="1"/>
-    <col min="19" max="28" width="10.2857142857143" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="11.1428571428571" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="11.7142857142857" hidden="1" customWidth="1"/>
-    <col min="31" max="45" width="10.2857142857143" hidden="1" customWidth="1"/>
-    <col min="46" max="46" width="13.8571428571429" hidden="1" customWidth="1"/>
-    <col min="47" max="48" width="10.2857142857143" hidden="1" customWidth="1"/>
-    <col min="49" max="49" width="13.7142857142857" customWidth="1"/>
-    <col min="50" max="50" width="12.8571428571429" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="7" max="7" width="122.85546875" customWidth="1"/>
+    <col min="8" max="9" width="10.28515625" hidden="1" customWidth="1"/>
+    <col min="10" max="13" width="12.85546875" hidden="1" customWidth="1"/>
+    <col min="14" max="17" width="10.28515625" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="12.85546875" hidden="1" customWidth="1"/>
+    <col min="19" max="28" width="10.28515625" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="11.140625" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="11.7109375" hidden="1" customWidth="1"/>
+    <col min="31" max="45" width="10.28515625" hidden="1" customWidth="1"/>
+    <col min="46" max="46" width="13.85546875" hidden="1" customWidth="1"/>
+    <col min="47" max="48" width="10.28515625" hidden="1" customWidth="1"/>
+    <col min="49" max="49" width="13.7109375" customWidth="1"/>
+    <col min="50" max="50" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" spans="1:50">
+    <row r="1" spans="1:50" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3519,7 +2939,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" ht="12.75" customHeight="1" spans="1:50">
+    <row r="2" spans="1:50" ht="12.75" customHeight="1">
       <c r="A2" s="5">
         <v>18353</v>
       </c>
@@ -3548,7 +2968,7 @@
         <v>77506</v>
       </c>
       <c r="J2" s="5">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K2" s="5">
         <v>4719951000176</v>
@@ -3635,7 +3055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" ht="12.75" customHeight="1" spans="1:50">
+    <row r="3" spans="1:50" ht="12.75" customHeight="1">
       <c r="A3">
         <v>18334</v>
       </c>
@@ -3664,7 +3084,7 @@
         <v>77509</v>
       </c>
       <c r="J3">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K3">
         <v>4719951000176</v>
@@ -3733,7 +3153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" ht="12.75" customHeight="1" spans="1:50">
+    <row r="4" spans="1:50" ht="12.75" customHeight="1">
       <c r="A4">
         <v>18335</v>
       </c>
@@ -3762,7 +3182,7 @@
         <v>77510</v>
       </c>
       <c r="J4">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K4">
         <v>4719951000176</v>
@@ -3831,7 +3251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" ht="12.75" customHeight="1" spans="1:50">
+    <row r="5" spans="1:50" ht="12.75" customHeight="1">
       <c r="A5">
         <v>18169</v>
       </c>
@@ -3860,7 +3280,7 @@
         <v>77517</v>
       </c>
       <c r="J5">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K5">
         <v>4719951000176</v>
@@ -3935,7 +3355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" ht="12.75" customHeight="1" spans="1:50">
+    <row r="6" spans="1:50" ht="12.75" customHeight="1">
       <c r="A6">
         <v>18165</v>
       </c>
@@ -3964,7 +3384,7 @@
         <v>77518</v>
       </c>
       <c r="J6">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K6">
         <v>4719951000176</v>
@@ -4039,7 +3459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" ht="12.75" customHeight="1" spans="1:50">
+    <row r="7" spans="1:50" ht="12.75" customHeight="1">
       <c r="A7">
         <v>18282</v>
       </c>
@@ -4068,7 +3488,7 @@
         <v>77519</v>
       </c>
       <c r="J7">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K7">
         <v>4719951000176</v>
@@ -4143,7 +3563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" ht="12.75" customHeight="1" spans="1:50">
+    <row r="8" spans="1:50" ht="12.75" customHeight="1">
       <c r="A8">
         <v>18164</v>
       </c>
@@ -4172,7 +3592,7 @@
         <v>77520</v>
       </c>
       <c r="J8">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K8">
         <v>4719951000176</v>
@@ -4247,7 +3667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" ht="12.75" customHeight="1" spans="1:50">
+    <row r="9" spans="1:50" ht="12.75" customHeight="1">
       <c r="A9">
         <v>18166</v>
       </c>
@@ -4276,7 +3696,7 @@
         <v>77521</v>
       </c>
       <c r="J9">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K9">
         <v>4719951000176</v>
@@ -4351,7 +3771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="12.75" customHeight="1" spans="1:50">
+    <row r="10" spans="1:50" ht="12.75" customHeight="1">
       <c r="A10">
         <v>18167</v>
       </c>
@@ -4380,7 +3800,7 @@
         <v>77522</v>
       </c>
       <c r="J10">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K10">
         <v>4719951000176</v>
@@ -4455,7 +3875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" ht="12.75" customHeight="1" spans="1:50">
+    <row r="11" spans="1:50" ht="12.75" customHeight="1">
       <c r="A11">
         <v>18223</v>
       </c>
@@ -4484,7 +3904,7 @@
         <v>77554</v>
       </c>
       <c r="J11">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K11">
         <v>4719951000176</v>
@@ -4559,7 +3979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" ht="12.75" customHeight="1" spans="1:50">
+    <row r="12" spans="1:50" ht="12.75" customHeight="1">
       <c r="A12">
         <v>17969</v>
       </c>
@@ -4588,7 +4008,7 @@
         <v>77560</v>
       </c>
       <c r="J12">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K12">
         <v>4719951000176</v>
@@ -4663,7 +4083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" ht="12.75" customHeight="1" spans="1:50">
+    <row r="13" spans="1:50" ht="12.75" customHeight="1">
       <c r="A13">
         <v>18228</v>
       </c>
@@ -4692,7 +4112,7 @@
         <v>77566</v>
       </c>
       <c r="J13">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K13">
         <v>4719951000176</v>
@@ -4767,7 +4187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" ht="12.75" customHeight="1" spans="1:50">
+    <row r="14" spans="1:50" ht="12.75" customHeight="1">
       <c r="A14">
         <v>18330</v>
       </c>
@@ -4796,7 +4216,7 @@
         <v>77572</v>
       </c>
       <c r="J14">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K14">
         <v>4719951000176</v>
@@ -4865,7 +4285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" ht="12.75" customHeight="1" spans="1:50">
+    <row r="15" spans="1:50" ht="12.75" customHeight="1">
       <c r="A15">
         <v>18336</v>
       </c>
@@ -4894,7 +4314,7 @@
         <v>77573</v>
       </c>
       <c r="J15">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K15">
         <v>4719951000176</v>
@@ -4963,7 +4383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" ht="12.75" customHeight="1" spans="1:50">
+    <row r="16" spans="1:50" ht="12.75" customHeight="1">
       <c r="A16">
         <v>18349</v>
       </c>
@@ -4992,7 +4412,7 @@
         <v>77574</v>
       </c>
       <c r="J16">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K16">
         <v>4719951000176</v>
@@ -5061,7 +4481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" ht="12.75" customHeight="1" spans="1:50">
+    <row r="17" spans="1:50" ht="12.75" customHeight="1">
       <c r="A17" s="5">
         <v>18362</v>
       </c>
@@ -5090,7 +4510,7 @@
         <v>77581</v>
       </c>
       <c r="J17" s="5">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K17" s="5">
         <v>4719951000176</v>
@@ -5175,7 +4595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" ht="12.75" customHeight="1" spans="1:50">
+    <row r="18" spans="1:50" ht="12.75" customHeight="1">
       <c r="A18" s="5">
         <v>18364</v>
       </c>
@@ -5204,7 +4624,7 @@
         <v>77582</v>
       </c>
       <c r="J18" s="5">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K18" s="5">
         <v>4719951000176</v>
@@ -5289,7 +4709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" ht="12.75" customHeight="1" spans="1:50">
+    <row r="19" spans="1:50" ht="12.75" customHeight="1">
       <c r="A19" s="5">
         <v>18363</v>
       </c>
@@ -5318,7 +4738,7 @@
         <v>77583</v>
       </c>
       <c r="J19" s="5">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K19" s="5">
         <v>4719951000176</v>
@@ -5403,7 +4823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" ht="12.75" customHeight="1" spans="1:50">
+    <row r="20" spans="1:50" ht="12.75" customHeight="1">
       <c r="A20" s="6">
         <v>18356</v>
       </c>
@@ -5432,7 +4852,7 @@
         <v>77589</v>
       </c>
       <c r="J20">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K20">
         <v>4719951000176</v>
@@ -5477,7 +4897,7 @@
         <v>315220048886920</v>
       </c>
       <c r="AE20" s="9">
-        <v>44897.557349537</v>
+        <v>44897.557349536997</v>
       </c>
       <c r="AF20">
         <v>315220048916483</v>
@@ -5504,7 +4924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" ht="12.75" customHeight="1" spans="1:50">
+    <row r="21" spans="1:50" ht="12.75" customHeight="1">
       <c r="A21" s="5">
         <v>18218</v>
       </c>
@@ -5533,7 +4953,7 @@
         <v>77591</v>
       </c>
       <c r="J21" s="5">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K21" s="5">
         <v>4719951000176</v>
@@ -5620,7 +5040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" ht="12.75" customHeight="1" spans="1:50">
+    <row r="22" spans="1:50" ht="12.75" customHeight="1">
       <c r="A22">
         <v>17736</v>
       </c>
@@ -5649,7 +5069,7 @@
         <v>77593</v>
       </c>
       <c r="J22">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K22">
         <v>4719951000176</v>
@@ -5724,7 +5144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" ht="12.75" customHeight="1" spans="1:50">
+    <row r="23" spans="1:50" ht="12.75" customHeight="1">
       <c r="A23">
         <v>18231</v>
       </c>
@@ -5753,7 +5173,7 @@
         <v>77597</v>
       </c>
       <c r="J23">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K23">
         <v>4719951000176</v>
@@ -5828,7 +5248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" ht="12.75" customHeight="1" spans="1:50">
+    <row r="24" spans="1:50" ht="12.75" customHeight="1">
       <c r="A24">
         <v>18205</v>
       </c>
@@ -5857,7 +5277,7 @@
         <v>77604</v>
       </c>
       <c r="J24">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K24">
         <v>4719951000176</v>
@@ -5932,7 +5352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" ht="12.75" customHeight="1" spans="1:50">
+    <row r="25" spans="1:50" ht="12.75" customHeight="1">
       <c r="A25">
         <v>18268</v>
       </c>
@@ -5961,7 +5381,7 @@
         <v>77606</v>
       </c>
       <c r="J25">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K25">
         <v>4719951000176</v>
@@ -6036,7 +5456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" ht="12.75" customHeight="1" spans="1:50">
+    <row r="26" spans="1:50" ht="12.75" customHeight="1">
       <c r="A26">
         <v>18288</v>
       </c>
@@ -6065,7 +5485,7 @@
         <v>77609</v>
       </c>
       <c r="J26">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K26">
         <v>4719951000176</v>
@@ -6140,7 +5560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" ht="12.75" customHeight="1" spans="1:50">
+    <row r="27" spans="1:50" ht="12.75" customHeight="1">
       <c r="A27">
         <v>17908</v>
       </c>
@@ -6169,7 +5589,7 @@
         <v>77613</v>
       </c>
       <c r="J27">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K27">
         <v>4719951000176</v>
@@ -6244,7 +5664,7 @@
         <v>3665.05004882813</v>
       </c>
     </row>
-    <row r="28" ht="12.75" customHeight="1" spans="1:50">
+    <row r="28" spans="1:50" ht="12.75" customHeight="1">
       <c r="A28">
         <v>17911</v>
       </c>
@@ -6273,7 +5693,7 @@
         <v>77614</v>
       </c>
       <c r="J28">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K28">
         <v>4719951000176</v>
@@ -6348,7 +5768,7 @@
         <v>11798.8203125</v>
       </c>
     </row>
-    <row r="29" s="1" customFormat="1" ht="12.75" customHeight="1" spans="1:50">
+    <row r="29" spans="1:50" s="1" customFormat="1" ht="12.75" customHeight="1">
       <c r="A29">
         <v>18357</v>
       </c>
@@ -6377,7 +5797,7 @@
         <v>77615</v>
       </c>
       <c r="J29">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K29">
         <v>4719951000176</v>
@@ -6468,7 +5888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" s="1" customFormat="1" ht="12.75" customHeight="1" spans="1:50">
+    <row r="30" spans="1:50" s="1" customFormat="1" ht="12.75" customHeight="1">
       <c r="A30">
         <v>18359</v>
       </c>
@@ -6497,7 +5917,7 @@
         <v>77619</v>
       </c>
       <c r="J30">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K30">
         <v>4719951000176</v>
@@ -6588,7 +6008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" ht="12.75" customHeight="1" spans="1:50">
+    <row r="31" spans="1:50" ht="12.75" customHeight="1">
       <c r="A31">
         <v>18358</v>
       </c>
@@ -6617,7 +6037,7 @@
         <v>77621</v>
       </c>
       <c r="J31">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K31">
         <v>4719951000176</v>
@@ -6692,7 +6112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" ht="12.75" customHeight="1" spans="1:50">
+    <row r="32" spans="1:50" ht="12.75" customHeight="1">
       <c r="A32">
         <v>18202</v>
       </c>
@@ -6721,7 +6141,7 @@
         <v>77631</v>
       </c>
       <c r="J32">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K32">
         <v>4719951000176</v>
@@ -6796,7 +6216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" ht="12.75" customHeight="1" spans="1:50">
+    <row r="33" spans="1:50" ht="12.75" customHeight="1">
       <c r="A33">
         <v>18200</v>
       </c>
@@ -6825,7 +6245,7 @@
         <v>77632</v>
       </c>
       <c r="J33">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K33">
         <v>4719951000176</v>
@@ -6900,7 +6320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" ht="12.75" customHeight="1" spans="1:50">
+    <row r="34" spans="1:50" ht="12.75" customHeight="1">
       <c r="A34">
         <v>18201</v>
       </c>
@@ -6929,7 +6349,7 @@
         <v>77633</v>
       </c>
       <c r="J34">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K34">
         <v>4719951000176</v>
@@ -7004,7 +6424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" ht="12.75" customHeight="1" spans="1:50">
+    <row r="35" spans="1:50" ht="12.75" customHeight="1">
       <c r="A35">
         <v>18135</v>
       </c>
@@ -7033,7 +6453,7 @@
         <v>77634</v>
       </c>
       <c r="J35">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K35">
         <v>4719951000176</v>
@@ -7102,7 +6522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" ht="12.75" customHeight="1" spans="1:50">
+    <row r="36" spans="1:50" ht="12.75" customHeight="1">
       <c r="A36">
         <v>18235</v>
       </c>
@@ -7131,7 +6551,7 @@
         <v>77635</v>
       </c>
       <c r="J36">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K36">
         <v>4719951000176</v>
@@ -7200,7 +6620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" ht="12.75" customHeight="1" spans="1:50">
+    <row r="37" spans="1:50" ht="12.75" customHeight="1">
       <c r="A37">
         <v>18239</v>
       </c>
@@ -7229,7 +6649,7 @@
         <v>77636</v>
       </c>
       <c r="J37">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K37">
         <v>4719951000176</v>
@@ -7298,7 +6718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" ht="12.75" customHeight="1" spans="1:50">
+    <row r="38" spans="1:50" ht="12.75" customHeight="1">
       <c r="A38">
         <v>18369</v>
       </c>
@@ -7327,7 +6747,7 @@
         <v>77637</v>
       </c>
       <c r="J38">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K38">
         <v>4719951000176</v>
@@ -7396,7 +6816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" ht="12.75" customHeight="1" spans="1:50">
+    <row r="39" spans="1:50" ht="12.75" customHeight="1">
       <c r="A39" s="5">
         <v>18365</v>
       </c>
@@ -7425,7 +6845,7 @@
         <v>77640</v>
       </c>
       <c r="J39" s="5">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K39" s="5">
         <v>4719951000176</v>
@@ -7510,7 +6930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" ht="12.75" customHeight="1" spans="1:50">
+    <row r="40" spans="1:50" ht="12.75" customHeight="1">
       <c r="A40" s="5">
         <v>18366</v>
       </c>
@@ -7527,7 +6947,7 @@
         <v>5101</v>
       </c>
       <c r="F40" s="7">
-        <v>456.480010986328</v>
+        <v>456.48001098632801</v>
       </c>
       <c r="G40" s="5" t="s">
         <v>173</v>
@@ -7539,7 +6959,7 @@
         <v>77641</v>
       </c>
       <c r="J40" s="5">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K40" s="5">
         <v>4719951000176</v>
@@ -7624,7 +7044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" ht="12.75" customHeight="1" spans="1:50">
+    <row r="41" spans="1:50" ht="12.75" customHeight="1">
       <c r="A41">
         <v>18360</v>
       </c>
@@ -7653,7 +7073,7 @@
         <v>77643</v>
       </c>
       <c r="J41">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K41">
         <v>4719951000176</v>
@@ -7728,7 +7148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" ht="12.75" customHeight="1" spans="1:50">
+    <row r="42" spans="1:50" ht="12.75" customHeight="1">
       <c r="A42">
         <v>18230</v>
       </c>
@@ -7757,7 +7177,7 @@
         <v>77655</v>
       </c>
       <c r="J42">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K42">
         <v>4719951000176</v>
@@ -7832,7 +7252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" ht="12.75" customHeight="1" spans="1:50">
+    <row r="43" spans="1:50" ht="12.75" customHeight="1">
       <c r="A43">
         <v>18229</v>
       </c>
@@ -7861,7 +7281,7 @@
         <v>77657</v>
       </c>
       <c r="J43">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K43">
         <v>4719951000176</v>
@@ -7936,7 +7356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" ht="12.75" customHeight="1" spans="1:50">
+    <row r="44" spans="1:50" ht="12.75" customHeight="1">
       <c r="A44">
         <v>18332</v>
       </c>
@@ -7965,7 +7385,7 @@
         <v>77664</v>
       </c>
       <c r="J44">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K44">
         <v>4719951000176</v>
@@ -8034,7 +7454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" ht="12.75" customHeight="1" spans="1:50">
+    <row r="45" spans="1:50" ht="12.75" customHeight="1">
       <c r="A45">
         <v>18368</v>
       </c>
@@ -8063,7 +7483,7 @@
         <v>77665</v>
       </c>
       <c r="J45">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K45">
         <v>4719951000176</v>
@@ -8132,7 +7552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" ht="12.75" customHeight="1" spans="1:50">
+    <row r="46" spans="1:50" ht="12.75" customHeight="1">
       <c r="A46" s="5">
         <v>18389</v>
       </c>
@@ -8161,7 +7581,7 @@
         <v>77669</v>
       </c>
       <c r="J46" s="5">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K46" s="5">
         <v>4719951000176</v>
@@ -8248,7 +7668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" ht="12.75" customHeight="1" spans="1:50">
+    <row r="47" spans="1:50" ht="12.75" customHeight="1">
       <c r="A47">
         <v>18189</v>
       </c>
@@ -8277,7 +7697,7 @@
         <v>77676</v>
       </c>
       <c r="J47">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K47">
         <v>4719951000176</v>
@@ -8352,7 +7772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" ht="12.75" customHeight="1" spans="1:50">
+    <row r="48" spans="1:50" ht="12.75" customHeight="1">
       <c r="A48">
         <v>18187</v>
       </c>
@@ -8381,7 +7801,7 @@
         <v>77677</v>
       </c>
       <c r="J48">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K48">
         <v>4719951000176</v>
@@ -8456,7 +7876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" ht="12.75" customHeight="1" spans="1:50">
+    <row r="49" spans="1:50" ht="12.75" customHeight="1">
       <c r="A49">
         <v>18188</v>
       </c>
@@ -8485,7 +7905,7 @@
         <v>77678</v>
       </c>
       <c r="J49">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K49">
         <v>4719951000176</v>
@@ -8560,7 +7980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" ht="12.75" customHeight="1" spans="1:50">
+    <row r="50" spans="1:50" ht="12.75" customHeight="1">
       <c r="A50">
         <v>18191</v>
       </c>
@@ -8589,7 +8009,7 @@
         <v>77679</v>
       </c>
       <c r="J50">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K50">
         <v>4719951000176</v>
@@ -8667,7 +8087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" ht="12.75" customHeight="1" spans="1:50">
+    <row r="51" spans="1:50" ht="12.75" customHeight="1">
       <c r="A51">
         <v>18394</v>
       </c>
@@ -8696,7 +8116,7 @@
         <v>77681</v>
       </c>
       <c r="J51">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K51">
         <v>4719951000176</v>
@@ -8771,7 +8191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" ht="12.75" customHeight="1" spans="1:50">
+    <row r="52" spans="1:50" ht="12.75" customHeight="1">
       <c r="A52">
         <v>18247</v>
       </c>
@@ -8800,7 +8220,7 @@
         <v>77689</v>
       </c>
       <c r="J52">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K52">
         <v>4719951000176</v>
@@ -8875,7 +8295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" ht="12.75" customHeight="1" spans="1:50">
+    <row r="53" spans="1:50" ht="12.75" customHeight="1">
       <c r="A53">
         <v>18249</v>
       </c>
@@ -8904,7 +8324,7 @@
         <v>77690</v>
       </c>
       <c r="J53">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K53">
         <v>4719951000176</v>
@@ -8979,7 +8399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" ht="12.75" customHeight="1" spans="1:50">
+    <row r="54" spans="1:50" ht="12.75" customHeight="1">
       <c r="A54">
         <v>18248</v>
       </c>
@@ -9008,7 +8428,7 @@
         <v>77691</v>
       </c>
       <c r="J54">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K54">
         <v>4719951000176</v>
@@ -9083,7 +8503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" ht="12.75" customHeight="1" spans="1:50">
+    <row r="55" spans="1:50" ht="12.75" customHeight="1">
       <c r="A55">
         <v>18246</v>
       </c>
@@ -9112,7 +8532,7 @@
         <v>77692</v>
       </c>
       <c r="J55">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K55">
         <v>4719951000176</v>
@@ -9187,7 +8607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" ht="12.75" customHeight="1" spans="1:50">
+    <row r="56" spans="1:50" ht="12.75" customHeight="1">
       <c r="A56" s="5">
         <v>18390</v>
       </c>
@@ -9216,7 +8636,7 @@
         <v>77693</v>
       </c>
       <c r="J56" s="5">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K56" s="5">
         <v>4719951000176</v>
@@ -9303,7 +8723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" ht="12.75" customHeight="1" spans="1:50">
+    <row r="57" spans="1:50" ht="12.75" customHeight="1">
       <c r="A57">
         <v>18109</v>
       </c>
@@ -9332,7 +8752,7 @@
         <v>77695</v>
       </c>
       <c r="J57">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K57">
         <v>4719951000176</v>
@@ -9398,7 +8818,7 @@
         <v>44901</v>
       </c>
       <c r="AU57">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="AV57" t="s">
         <v>56</v>
@@ -9407,7 +8827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" ht="12.75" customHeight="1" spans="1:50">
+    <row r="58" spans="1:50" ht="12.75" customHeight="1">
       <c r="A58">
         <v>18354</v>
       </c>
@@ -9436,7 +8856,7 @@
         <v>77697</v>
       </c>
       <c r="J58">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K58">
         <v>4719951000176</v>
@@ -9511,7 +8931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" ht="12.75" customHeight="1" spans="1:50">
+    <row r="59" spans="1:50" ht="12.75" customHeight="1">
       <c r="A59" s="5">
         <v>18391</v>
       </c>
@@ -9540,7 +8960,7 @@
         <v>77711</v>
       </c>
       <c r="J59" s="5">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K59" s="5">
         <v>4719951000176</v>
@@ -9627,7 +9047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" ht="12.75" customHeight="1" spans="1:50">
+    <row r="60" spans="1:50" ht="12.75" customHeight="1">
       <c r="A60">
         <v>18219</v>
       </c>
@@ -9656,7 +9076,7 @@
         <v>77731</v>
       </c>
       <c r="J60">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K60">
         <v>4719951000176</v>
@@ -9722,7 +9142,7 @@
         <v>44902</v>
       </c>
       <c r="AU60">
-        <v>2.1221206057223e+43</v>
+        <v>2.1221206057223E+43</v>
       </c>
       <c r="AV60" t="s">
         <v>56</v>
@@ -9734,7 +9154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" ht="12.75" customHeight="1" spans="1:50">
+    <row r="61" spans="1:50" ht="12.75" customHeight="1">
       <c r="A61">
         <v>18220</v>
       </c>
@@ -9763,7 +9183,7 @@
         <v>77732</v>
       </c>
       <c r="J61">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K61">
         <v>4719951000176</v>
@@ -9838,7 +9258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" ht="12.75" customHeight="1" spans="1:50">
+    <row r="62" spans="1:50" ht="12.75" customHeight="1">
       <c r="A62">
         <v>18221</v>
       </c>
@@ -9867,7 +9287,7 @@
         <v>77733</v>
       </c>
       <c r="J62">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K62">
         <v>4719951000176</v>
@@ -9942,7 +9362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" ht="12.75" customHeight="1" spans="1:50">
+    <row r="63" spans="1:50" ht="12.75" customHeight="1">
       <c r="A63">
         <v>18372</v>
       </c>
@@ -9971,7 +9391,7 @@
         <v>77737</v>
       </c>
       <c r="J63">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K63">
         <v>4719951000176</v>
@@ -10040,7 +9460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" ht="12.75" customHeight="1" spans="1:50">
+    <row r="64" spans="1:50" ht="12.75" customHeight="1">
       <c r="A64">
         <v>18388</v>
       </c>
@@ -10069,7 +9489,7 @@
         <v>77738</v>
       </c>
       <c r="J64">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K64">
         <v>4719951000176</v>
@@ -10138,7 +9558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" ht="12.75" customHeight="1" spans="1:50">
+    <row r="65" spans="1:50" ht="12.75" customHeight="1">
       <c r="A65">
         <v>18395</v>
       </c>
@@ -10167,7 +9587,7 @@
         <v>77739</v>
       </c>
       <c r="J65">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K65">
         <v>4719951000176</v>
@@ -10236,7 +9656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" ht="12.75" customHeight="1" spans="1:50">
+    <row r="66" spans="1:50" ht="12.75" customHeight="1">
       <c r="A66">
         <v>18264</v>
       </c>
@@ -10265,7 +9685,7 @@
         <v>77741</v>
       </c>
       <c r="J66">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K66">
         <v>4719951000176</v>
@@ -10340,7 +9760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" ht="12.75" customHeight="1" spans="1:50">
+    <row r="67" spans="1:50" ht="12.75" customHeight="1">
       <c r="A67">
         <v>18341</v>
       </c>
@@ -10369,7 +9789,7 @@
         <v>77747</v>
       </c>
       <c r="J67">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K67">
         <v>4719951000176</v>
@@ -10444,7 +9864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" ht="12.75" customHeight="1" spans="1:50">
+    <row r="68" spans="1:50" ht="12.75" customHeight="1">
       <c r="A68">
         <v>18392</v>
       </c>
@@ -10473,7 +9893,7 @@
         <v>77752</v>
       </c>
       <c r="J68">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K68">
         <v>4719951000176</v>
@@ -10542,7 +9962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" ht="12.75" customHeight="1" spans="1:50">
+    <row r="69" spans="1:50" ht="12.75" customHeight="1">
       <c r="A69">
         <v>18393</v>
       </c>
@@ -10571,7 +9991,7 @@
         <v>77753</v>
       </c>
       <c r="J69">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K69">
         <v>4719951000176</v>
@@ -10640,7 +10060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" ht="12.75" customHeight="1" spans="1:50">
+    <row r="70" spans="1:50" ht="12.75" customHeight="1">
       <c r="A70">
         <v>18110</v>
       </c>
@@ -10669,7 +10089,7 @@
         <v>77756</v>
       </c>
       <c r="J70">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K70">
         <v>4719951000176</v>
@@ -10744,7 +10164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" ht="12.75" customHeight="1" spans="1:50">
+    <row r="71" spans="1:50" ht="12.75" customHeight="1">
       <c r="A71">
         <v>18111</v>
       </c>
@@ -10773,7 +10193,7 @@
         <v>77757</v>
       </c>
       <c r="J71">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K71">
         <v>4719951000176</v>
@@ -10848,7 +10268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" ht="12.75" customHeight="1" spans="1:50">
+    <row r="72" spans="1:50" ht="12.75" customHeight="1">
       <c r="A72" s="5">
         <v>18387</v>
       </c>
@@ -10877,7 +10297,7 @@
         <v>77759</v>
       </c>
       <c r="J72" s="5">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K72" s="5">
         <v>4719951000176</v>
@@ -10962,7 +10382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" ht="12.75" customHeight="1" spans="1:50">
+    <row r="73" spans="1:50" ht="12.75" customHeight="1">
       <c r="A73">
         <v>18214</v>
       </c>
@@ -10991,7 +10411,7 @@
         <v>77766</v>
       </c>
       <c r="J73">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K73">
         <v>4719951000176</v>
@@ -11066,7 +10486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" s="1" customFormat="1" ht="12.75" customHeight="1" spans="1:50">
+    <row r="74" spans="1:50" s="1" customFormat="1" ht="12.75" customHeight="1">
       <c r="A74">
         <v>18361</v>
       </c>
@@ -11095,7 +10515,7 @@
         <v>77768</v>
       </c>
       <c r="J74">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K74">
         <v>4719951000176</v>
@@ -11176,7 +10596,7 @@
         <v>44902</v>
       </c>
       <c r="AU74">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="AV74" t="s">
         <v>56</v>
@@ -11186,7 +10606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" ht="12.75" customHeight="1" spans="1:50">
+    <row r="75" spans="1:50" ht="12.75" customHeight="1">
       <c r="A75">
         <v>18405</v>
       </c>
@@ -11215,7 +10635,7 @@
         <v>77777</v>
       </c>
       <c r="J75">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K75">
         <v>4719951000176</v>
@@ -11284,7 +10704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" ht="12.75" customHeight="1" spans="1:50">
+    <row r="76" spans="1:50" ht="12.75" customHeight="1">
       <c r="A76">
         <v>18337</v>
       </c>
@@ -11313,7 +10733,7 @@
         <v>77778</v>
       </c>
       <c r="J76">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K76">
         <v>4719951000176</v>
@@ -11382,7 +10802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" ht="12.75" customHeight="1" spans="1:50">
+    <row r="77" spans="1:50" ht="12.75" customHeight="1">
       <c r="A77">
         <v>18396</v>
       </c>
@@ -11411,7 +10831,7 @@
         <v>77779</v>
       </c>
       <c r="J77">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K77">
         <v>4719951000176</v>
@@ -11480,7 +10900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" ht="12.75" customHeight="1" spans="1:50">
+    <row r="78" spans="1:50" ht="12.75" customHeight="1">
       <c r="A78">
         <v>18402</v>
       </c>
@@ -11509,7 +10929,7 @@
         <v>77781</v>
       </c>
       <c r="J78">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K78">
         <v>4719951000176</v>
@@ -11578,7 +10998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" ht="12.75" customHeight="1" spans="1:50">
+    <row r="79" spans="1:50" ht="12.75" customHeight="1">
       <c r="A79">
         <v>18403</v>
       </c>
@@ -11607,7 +11027,7 @@
         <v>77782</v>
       </c>
       <c r="J79">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K79">
         <v>4719951000176</v>
@@ -11676,7 +11096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" ht="12.75" customHeight="1" spans="1:50">
+    <row r="80" spans="1:50" ht="12.75" customHeight="1">
       <c r="A80">
         <v>18319</v>
       </c>
@@ -11705,7 +11125,7 @@
         <v>77791</v>
       </c>
       <c r="J80">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K80">
         <v>4719951000176</v>
@@ -11780,7 +11200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" ht="12.75" customHeight="1" spans="1:50">
+    <row r="81" spans="1:50" ht="12.75" customHeight="1">
       <c r="A81">
         <v>18342</v>
       </c>
@@ -11809,7 +11229,7 @@
         <v>77797</v>
       </c>
       <c r="J81">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K81">
         <v>4719951000176</v>
@@ -11887,7 +11307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" ht="12.75" customHeight="1" spans="1:50">
+    <row r="82" spans="1:50" ht="12.75" customHeight="1">
       <c r="A82">
         <v>18275</v>
       </c>
@@ -11916,7 +11336,7 @@
         <v>77810</v>
       </c>
       <c r="J82">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K82">
         <v>4719951000176</v>
@@ -11991,7 +11411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" ht="12.75" customHeight="1" spans="1:50">
+    <row r="83" spans="1:50" ht="12.75" customHeight="1">
       <c r="A83">
         <v>18276</v>
       </c>
@@ -12020,7 +11440,7 @@
         <v>77811</v>
       </c>
       <c r="J83">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K83">
         <v>4719951000176</v>
@@ -12095,7 +11515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" ht="12.75" customHeight="1" spans="1:50">
+    <row r="84" spans="1:50" ht="12.75" customHeight="1">
       <c r="A84">
         <v>18280</v>
       </c>
@@ -12124,7 +11544,7 @@
         <v>77812</v>
       </c>
       <c r="J84">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K84">
         <v>4719951000176</v>
@@ -12199,7 +11619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" ht="12.75" customHeight="1" spans="1:50">
+    <row r="85" spans="1:50" ht="12.75" customHeight="1">
       <c r="A85">
         <v>18311</v>
       </c>
@@ -12228,7 +11648,7 @@
         <v>77813</v>
       </c>
       <c r="J85">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K85">
         <v>4719951000176</v>
@@ -12303,7 +11723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" ht="12.75" customHeight="1" spans="1:50">
+    <row r="86" spans="1:50" ht="12.75" customHeight="1">
       <c r="A86">
         <v>17966</v>
       </c>
@@ -12332,7 +11752,7 @@
         <v>77818</v>
       </c>
       <c r="J86">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K86">
         <v>4719951000176</v>
@@ -12401,7 +11821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" ht="12.75" customHeight="1" spans="1:50">
+    <row r="87" spans="1:50" ht="12.75" customHeight="1">
       <c r="A87">
         <v>18421</v>
       </c>
@@ -12430,7 +11850,7 @@
         <v>77819</v>
       </c>
       <c r="J87">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K87">
         <v>4719951000176</v>
@@ -12499,7 +11919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" ht="12.75" customHeight="1" spans="1:50">
+    <row r="88" spans="1:50" ht="12.75" customHeight="1">
       <c r="A88">
         <v>18333</v>
       </c>
@@ -12528,7 +11948,7 @@
         <v>77820</v>
       </c>
       <c r="J88">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K88">
         <v>4719951000176</v>
@@ -12597,7 +12017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" ht="12.75" customHeight="1" spans="1:50">
+    <row r="89" spans="1:50" ht="12.75" customHeight="1">
       <c r="A89">
         <v>18414</v>
       </c>
@@ -12626,7 +12046,7 @@
         <v>77821</v>
       </c>
       <c r="J89">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K89">
         <v>4719951000176</v>
@@ -12695,7 +12115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" ht="12.75" customHeight="1" spans="1:50">
+    <row r="90" spans="1:50" ht="12.75" customHeight="1">
       <c r="A90" s="5">
         <v>18269</v>
       </c>
@@ -12724,7 +12144,7 @@
         <v>77823</v>
       </c>
       <c r="J90" s="5">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K90" s="5">
         <v>4719951000176</v>
@@ -12811,7 +12231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" ht="12.75" customHeight="1" spans="1:50">
+    <row r="91" spans="1:50" ht="12.75" customHeight="1">
       <c r="A91">
         <v>18331</v>
       </c>
@@ -12840,7 +12260,7 @@
         <v>77826</v>
       </c>
       <c r="J91">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K91">
         <v>4719951000176</v>
@@ -12915,7 +12335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" ht="12.75" customHeight="1" spans="1:50">
+    <row r="92" spans="1:50" ht="12.75" customHeight="1">
       <c r="A92" s="5">
         <v>18429</v>
       </c>
@@ -12944,7 +12364,7 @@
         <v>77827</v>
       </c>
       <c r="J92" s="5">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K92" s="5">
         <v>4719951000176</v>
@@ -13031,7 +12451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" ht="12.75" customHeight="1" spans="1:50">
+    <row r="93" spans="1:50" ht="12.75" customHeight="1">
       <c r="A93" s="5">
         <v>18430</v>
       </c>
@@ -13060,7 +12480,7 @@
         <v>77829</v>
       </c>
       <c r="J93" s="5">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K93" s="5">
         <v>4719951000176</v>
@@ -13147,7 +12567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" ht="12.75" customHeight="1" spans="1:50">
+    <row r="94" spans="1:50" ht="12.75" customHeight="1">
       <c r="A94">
         <v>18346</v>
       </c>
@@ -13176,7 +12596,7 @@
         <v>77833</v>
       </c>
       <c r="J94">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K94">
         <v>4719951000176</v>
@@ -13245,7 +12665,7 @@
         <v>5807.2099609375</v>
       </c>
     </row>
-    <row r="95" ht="12.75" customHeight="1" spans="1:50">
+    <row r="95" spans="1:50" ht="12.75" customHeight="1">
       <c r="A95">
         <v>18382</v>
       </c>
@@ -13274,7 +12694,7 @@
         <v>77835</v>
       </c>
       <c r="J95">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K95">
         <v>4719951000176</v>
@@ -13349,7 +12769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" ht="12.75" customHeight="1" spans="1:50">
+    <row r="96" spans="1:50" ht="12.75" customHeight="1">
       <c r="A96">
         <v>18224</v>
       </c>
@@ -13378,7 +12798,7 @@
         <v>77839</v>
       </c>
       <c r="J96">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K96">
         <v>4719951000176</v>
@@ -13444,7 +12864,7 @@
         <v>44904</v>
       </c>
       <c r="AU96">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="AV96" t="s">
         <v>56</v>
@@ -13453,7 +12873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" ht="12.75" customHeight="1" spans="1:50">
+    <row r="97" spans="1:50" ht="12.75" customHeight="1">
       <c r="A97">
         <v>17952</v>
       </c>
@@ -13482,7 +12902,7 @@
         <v>77843</v>
       </c>
       <c r="J97">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K97">
         <v>4719951000176</v>
@@ -13557,7 +12977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" ht="12.75" customHeight="1" spans="1:50">
+    <row r="98" spans="1:50" ht="12.75" customHeight="1">
       <c r="A98">
         <v>18356</v>
       </c>
@@ -13586,7 +13006,7 @@
         <v>77845</v>
       </c>
       <c r="J98">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K98">
         <v>4719951000176</v>
@@ -13661,7 +13081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" s="1" customFormat="1" ht="12.75" customHeight="1" spans="1:50">
+    <row r="99" spans="1:50" s="1" customFormat="1" ht="12.75" customHeight="1">
       <c r="A99">
         <v>18307</v>
       </c>
@@ -13690,7 +13110,7 @@
         <v>77847</v>
       </c>
       <c r="J99">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K99">
         <v>4719951000176</v>
@@ -13771,7 +13191,7 @@
         <v>44904</v>
       </c>
       <c r="AU99">
-        <v>1.5230104719951e+43</v>
+        <v>1.5230104719950999E+43</v>
       </c>
       <c r="AV99" t="s">
         <v>56</v>
@@ -13781,7 +13201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" ht="12.75" customHeight="1" spans="1:50">
+    <row r="100" spans="1:50" ht="12.75" customHeight="1">
       <c r="A100">
         <v>18289</v>
       </c>
@@ -13810,7 +13230,7 @@
         <v>77849</v>
       </c>
       <c r="J100">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K100">
         <v>4719951000176</v>
@@ -13885,7 +13305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" ht="12.75" customHeight="1" spans="1:50">
+    <row r="101" spans="1:50" ht="12.75" customHeight="1">
       <c r="A101" s="6">
         <v>18256</v>
       </c>
@@ -13914,7 +13334,7 @@
         <v>77851</v>
       </c>
       <c r="J101" s="6">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K101" s="6">
         <v>4719951000176</v>
@@ -14005,7 +13425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" ht="12.75" customHeight="1" spans="1:50">
+    <row r="102" spans="1:50" ht="12.75" customHeight="1">
       <c r="A102" s="5">
         <v>18381</v>
       </c>
@@ -14034,7 +13454,7 @@
         <v>77855</v>
       </c>
       <c r="J102" s="5">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K102" s="5">
         <v>4719951000176</v>
@@ -14121,7 +13541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" ht="12.75" customHeight="1" spans="1:50">
+    <row r="103" spans="1:50" ht="12.75" customHeight="1">
       <c r="A103">
         <v>18236</v>
       </c>
@@ -14150,7 +13570,7 @@
         <v>77857</v>
       </c>
       <c r="J103">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K103">
         <v>4719951000176</v>
@@ -14219,7 +13639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" ht="12.75" customHeight="1" spans="1:50">
+    <row r="104" spans="1:50" ht="12.75" customHeight="1">
       <c r="A104">
         <v>18240</v>
       </c>
@@ -14248,7 +13668,7 @@
         <v>77858</v>
       </c>
       <c r="J104">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K104">
         <v>4719951000176</v>
@@ -14317,7 +13737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" ht="12.75" customHeight="1" spans="1:50">
+    <row r="105" spans="1:50" ht="12.75" customHeight="1">
       <c r="A105">
         <v>18398</v>
       </c>
@@ -14346,7 +13766,7 @@
         <v>77859</v>
       </c>
       <c r="J105">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K105">
         <v>4719951000176</v>
@@ -14415,7 +13835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" ht="12.75" customHeight="1" spans="1:50">
+    <row r="106" spans="1:50" ht="12.75" customHeight="1">
       <c r="A106" s="5">
         <v>18427</v>
       </c>
@@ -14444,7 +13864,7 @@
         <v>77863</v>
       </c>
       <c r="J106" s="5">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K106" s="5">
         <v>4719951000176</v>
@@ -14521,7 +13941,7 @@
         <v>44907</v>
       </c>
       <c r="AU106" s="5">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="AV106" s="5" t="s">
         <v>56</v>
@@ -14531,7 +13951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" ht="12.75" customHeight="1" spans="1:50">
+    <row r="107" spans="1:50" ht="12.75" customHeight="1">
       <c r="A107" s="5">
         <v>18450</v>
       </c>
@@ -14560,7 +13980,7 @@
         <v>77865</v>
       </c>
       <c r="J107" s="5">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K107" s="5">
         <v>4719951000176</v>
@@ -14647,7 +14067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" ht="12.75" customHeight="1" spans="1:50">
+    <row r="108" spans="1:50" ht="12.75" customHeight="1">
       <c r="A108">
         <v>16963</v>
       </c>
@@ -14676,7 +14096,7 @@
         <v>77871</v>
       </c>
       <c r="J108">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K108">
         <v>4719951000176</v>
@@ -14751,7 +14171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" ht="12.75" customHeight="1" spans="1:50">
+    <row r="109" spans="1:50" ht="12.75" customHeight="1">
       <c r="A109">
         <v>18451</v>
       </c>
@@ -14780,7 +14200,7 @@
         <v>77877</v>
       </c>
       <c r="J109">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K109">
         <v>4719951000176</v>
@@ -14849,7 +14269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" ht="12.75" customHeight="1" spans="1:50">
+    <row r="110" spans="1:50" ht="12.75" customHeight="1">
       <c r="A110" s="5">
         <v>18454</v>
       </c>
@@ -14878,7 +14298,7 @@
         <v>77880</v>
       </c>
       <c r="J110" s="5">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K110" s="5">
         <v>4719951000176</v>
@@ -14965,7 +14385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" ht="12.75" customHeight="1" spans="1:50">
+    <row r="111" spans="1:50" ht="12.75" customHeight="1">
       <c r="A111" s="5">
         <v>18453</v>
       </c>
@@ -14994,7 +14414,7 @@
         <v>77881</v>
       </c>
       <c r="J111" s="5">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K111" s="5">
         <v>4719951000176</v>
@@ -15081,7 +14501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" ht="12.75" customHeight="1" spans="1:50">
+    <row r="112" spans="1:50" ht="12.75" customHeight="1">
       <c r="A112">
         <v>18431</v>
       </c>
@@ -15110,7 +14530,7 @@
         <v>77883</v>
       </c>
       <c r="J112">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K112">
         <v>4719951000176</v>
@@ -15179,7 +14599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" ht="12.75" customHeight="1" spans="1:50">
+    <row r="113" spans="1:50" ht="12.75" customHeight="1">
       <c r="A113" s="5">
         <v>18399</v>
       </c>
@@ -15208,7 +14628,7 @@
         <v>77886</v>
       </c>
       <c r="J113" s="5">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K113" s="5">
         <v>4719951000176</v>
@@ -15295,7 +14715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" ht="12.75" customHeight="1" spans="1:50">
+    <row r="114" spans="1:50" ht="12.75" customHeight="1">
       <c r="A114">
         <v>18412</v>
       </c>
@@ -15324,7 +14744,7 @@
         <v>77887</v>
       </c>
       <c r="J114">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K114">
         <v>4719951000176</v>
@@ -15393,7 +14813,7 @@
         <v>4469.39990234375</v>
       </c>
     </row>
-    <row r="115" ht="12.75" customHeight="1" spans="1:50">
+    <row r="115" spans="1:50" ht="12.75" customHeight="1">
       <c r="A115">
         <v>18452</v>
       </c>
@@ -15422,7 +14842,7 @@
         <v>77889</v>
       </c>
       <c r="J115">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K115">
         <v>4719951000176</v>
@@ -15497,7 +14917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" ht="12.75" customHeight="1" spans="1:50">
+    <row r="116" spans="1:50" ht="12.75" customHeight="1">
       <c r="A116">
         <v>18283</v>
       </c>
@@ -15526,7 +14946,7 @@
         <v>77901</v>
       </c>
       <c r="J116">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K116">
         <v>4719951000176</v>
@@ -15601,7 +15021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" ht="12.75" customHeight="1" spans="1:50">
+    <row r="117" spans="1:50" ht="12.75" customHeight="1">
       <c r="A117">
         <v>18168</v>
       </c>
@@ -15630,7 +15050,7 @@
         <v>77902</v>
       </c>
       <c r="J117">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K117">
         <v>4719951000176</v>
@@ -15705,7 +15125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" ht="12.75" customHeight="1" spans="1:50">
+    <row r="118" spans="1:50" ht="12.75" customHeight="1">
       <c r="A118">
         <v>18281</v>
       </c>
@@ -15734,7 +15154,7 @@
         <v>77903</v>
       </c>
       <c r="J118">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K118">
         <v>4719951000176</v>
@@ -15809,7 +15229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" ht="12.75" customHeight="1" spans="1:50">
+    <row r="119" spans="1:50" ht="12.75" customHeight="1">
       <c r="A119">
         <v>18284</v>
       </c>
@@ -15838,7 +15258,7 @@
         <v>77904</v>
       </c>
       <c r="J119">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K119">
         <v>4719951000176</v>
@@ -15913,7 +15333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" ht="12.75" customHeight="1" spans="1:50">
+    <row r="120" spans="1:50" ht="12.75" customHeight="1">
       <c r="A120">
         <v>18285</v>
       </c>
@@ -15942,7 +15362,7 @@
         <v>77905</v>
       </c>
       <c r="J120">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K120">
         <v>4719951000176</v>
@@ -16017,7 +15437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" ht="12.75" customHeight="1" spans="1:50">
+    <row r="121" spans="1:50" ht="12.75" customHeight="1">
       <c r="A121">
         <v>18371</v>
       </c>
@@ -16046,7 +15466,7 @@
         <v>77907</v>
       </c>
       <c r="J121">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K121">
         <v>4719951000176</v>
@@ -16121,7 +15541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" ht="12.75" customHeight="1" spans="1:50">
+    <row r="122" spans="1:50" ht="12.75" customHeight="1">
       <c r="A122">
         <v>18462</v>
       </c>
@@ -16150,7 +15570,7 @@
         <v>77913</v>
       </c>
       <c r="J122">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K122">
         <v>4719951000176</v>
@@ -16219,7 +15639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" ht="12.75" customHeight="1" spans="1:50">
+    <row r="123" spans="1:50" ht="12.75" customHeight="1">
       <c r="A123">
         <v>18436</v>
       </c>
@@ -16248,7 +15668,7 @@
         <v>77916</v>
       </c>
       <c r="J123">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K123">
         <v>4719951000176</v>
@@ -16317,7 +15737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" ht="12.75" customHeight="1" spans="1:50">
+    <row r="124" spans="1:50" ht="12.75" customHeight="1">
       <c r="A124">
         <v>18310</v>
       </c>
@@ -16346,7 +15766,7 @@
         <v>77918</v>
       </c>
       <c r="J124">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K124">
         <v>4719951000176</v>
@@ -16415,7 +15835,7 @@
         <v>1073.48999023438</v>
       </c>
     </row>
-    <row r="125" ht="12.75" customHeight="1" spans="1:50">
+    <row r="125" spans="1:50" ht="12.75" customHeight="1">
       <c r="A125">
         <v>18406</v>
       </c>
@@ -16444,7 +15864,7 @@
         <v>77928</v>
       </c>
       <c r="J125">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K125">
         <v>4719951000176</v>
@@ -16519,7 +15939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" ht="12.75" customHeight="1" spans="1:50">
+    <row r="126" spans="1:50" ht="12.75" customHeight="1">
       <c r="A126">
         <v>18408</v>
       </c>
@@ -16548,7 +15968,7 @@
         <v>77929</v>
       </c>
       <c r="J126">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K126">
         <v>4719951000176</v>
@@ -16623,7 +16043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" ht="12.75" customHeight="1" spans="1:50">
+    <row r="127" spans="1:50" ht="12.75" customHeight="1">
       <c r="A127">
         <v>18407</v>
       </c>
@@ -16652,7 +16072,7 @@
         <v>77930</v>
       </c>
       <c r="J127">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K127">
         <v>4719951000176</v>
@@ -16727,7 +16147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" ht="12.75" customHeight="1" spans="1:50">
+    <row r="128" spans="1:50" ht="12.75" customHeight="1">
       <c r="A128">
         <v>18409</v>
       </c>
@@ -16756,7 +16176,7 @@
         <v>77931</v>
       </c>
       <c r="J128">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K128">
         <v>4719951000176</v>
@@ -16831,7 +16251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" ht="12.75" customHeight="1" spans="1:50">
+    <row r="129" spans="1:50" ht="12.75" customHeight="1">
       <c r="A129">
         <v>18411</v>
       </c>
@@ -16860,7 +16280,7 @@
         <v>77932</v>
       </c>
       <c r="J129">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K129">
         <v>4719951000176</v>
@@ -16935,7 +16355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" ht="12.75" customHeight="1" spans="1:50">
+    <row r="130" spans="1:50" ht="12.75" customHeight="1">
       <c r="A130">
         <v>18410</v>
       </c>
@@ -16964,7 +16384,7 @@
         <v>77933</v>
       </c>
       <c r="J130">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K130">
         <v>4719951000176</v>
@@ -17039,7 +16459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" ht="12.75" customHeight="1" spans="1:50">
+    <row r="131" spans="1:50" ht="12.75" customHeight="1">
       <c r="A131" s="5">
         <v>18465</v>
       </c>
@@ -17068,7 +16488,7 @@
         <v>77934</v>
       </c>
       <c r="J131" s="5">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K131" s="5">
         <v>4719951000176</v>
@@ -17155,7 +16575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" s="1" customFormat="1" ht="12.75" customHeight="1" spans="1:50">
+    <row r="132" spans="1:50" s="1" customFormat="1" ht="12.75" customHeight="1">
       <c r="A132">
         <v>18473</v>
       </c>
@@ -17184,7 +16604,7 @@
         <v>77954</v>
       </c>
       <c r="J132">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K132">
         <v>4719951000176</v>
@@ -17265,7 +16685,7 @@
         <v>44909</v>
       </c>
       <c r="AU132">
-        <v>1.5230104719951e+43</v>
+        <v>1.5230104719950999E+43</v>
       </c>
       <c r="AV132" t="s">
         <v>56</v>
@@ -17275,7 +16695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" ht="12.75" customHeight="1" spans="1:50">
+    <row r="133" spans="1:50" ht="12.75" customHeight="1">
       <c r="A133">
         <v>18455</v>
       </c>
@@ -17304,7 +16724,7 @@
         <v>77957</v>
       </c>
       <c r="J133">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K133">
         <v>4719951000176</v>
@@ -17379,7 +16799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" ht="12.75" customHeight="1" spans="1:50">
+    <row r="134" spans="1:50" ht="12.75" customHeight="1">
       <c r="A134">
         <v>18458</v>
       </c>
@@ -17408,7 +16828,7 @@
         <v>77958</v>
       </c>
       <c r="J134">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K134">
         <v>4719951000176</v>
@@ -17483,7 +16903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" ht="12.75" customHeight="1" spans="1:50">
+    <row r="135" spans="1:50" ht="12.75" customHeight="1">
       <c r="A135">
         <v>18470</v>
       </c>
@@ -17512,7 +16932,7 @@
         <v>77960</v>
       </c>
       <c r="J135">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K135">
         <v>4719951000176</v>
@@ -17587,7 +17007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" ht="12.75" customHeight="1" spans="1:50">
+    <row r="136" spans="1:50" ht="12.75" customHeight="1">
       <c r="A136">
         <v>18471</v>
       </c>
@@ -17616,7 +17036,7 @@
         <v>77964</v>
       </c>
       <c r="J136">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K136">
         <v>4719951000176</v>
@@ -17691,7 +17111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" ht="12.75" customHeight="1" spans="1:50">
+    <row r="137" spans="1:50" ht="12.75" customHeight="1">
       <c r="A137">
         <v>18038</v>
       </c>
@@ -17720,7 +17140,7 @@
         <v>77966</v>
       </c>
       <c r="J137">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K137">
         <v>4719951000176</v>
@@ -17795,7 +17215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" s="1" customFormat="1" ht="12.75" customHeight="1" spans="1:50">
+    <row r="138" spans="1:50" s="1" customFormat="1" ht="12.75" customHeight="1">
       <c r="A138">
         <v>18309</v>
       </c>
@@ -17824,7 +17244,7 @@
         <v>77969</v>
       </c>
       <c r="J138">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K138">
         <v>4719951000176</v>
@@ -17905,7 +17325,7 @@
         <v>44909</v>
       </c>
       <c r="AU138">
-        <v>1.5230104719951e+43</v>
+        <v>1.5230104719950999E+43</v>
       </c>
       <c r="AV138" t="s">
         <v>56</v>
@@ -17915,7 +17335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" ht="12.75" customHeight="1" spans="1:50">
+    <row r="139" spans="1:50" ht="12.75" customHeight="1">
       <c r="A139" s="5">
         <v>18467</v>
       </c>
@@ -17944,7 +17364,7 @@
         <v>77974</v>
       </c>
       <c r="J139" s="5">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K139" s="5">
         <v>4719951000176</v>
@@ -18031,7 +17451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" ht="12.75" customHeight="1" spans="1:50">
+    <row r="140" spans="1:50" ht="12.75" customHeight="1">
       <c r="A140">
         <v>18215</v>
       </c>
@@ -18060,7 +17480,7 @@
         <v>77980</v>
       </c>
       <c r="J140">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K140">
         <v>4719951000176</v>
@@ -18135,7 +17555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" ht="12.75" customHeight="1" spans="1:50">
+    <row r="141" spans="1:50" ht="12.75" customHeight="1">
       <c r="A141">
         <v>18459</v>
       </c>
@@ -18164,7 +17584,7 @@
         <v>77981</v>
       </c>
       <c r="J141">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K141">
         <v>4719951000176</v>
@@ -18239,7 +17659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" ht="12.75" customHeight="1" spans="1:50">
+    <row r="142" spans="1:50" ht="12.75" customHeight="1">
       <c r="A142">
         <v>18456</v>
       </c>
@@ -18268,7 +17688,7 @@
         <v>77986</v>
       </c>
       <c r="J142">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K142">
         <v>4719951000176</v>
@@ -18337,7 +17757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" ht="12.75" customHeight="1" spans="1:50">
+    <row r="143" spans="1:50" ht="12.75" customHeight="1">
       <c r="A143">
         <v>18457</v>
       </c>
@@ -18366,7 +17786,7 @@
         <v>77987</v>
       </c>
       <c r="J143">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K143">
         <v>4719951000176</v>
@@ -18435,7 +17855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" ht="12.75" customHeight="1" spans="1:50">
+    <row r="144" spans="1:50" ht="12.75" customHeight="1">
       <c r="A144">
         <v>18469</v>
       </c>
@@ -18464,7 +17884,7 @@
         <v>77988</v>
       </c>
       <c r="J144">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K144">
         <v>4719951000176</v>
@@ -18524,7 +17944,7 @@
         <v>44910</v>
       </c>
       <c r="AU144">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="AV144" t="s">
         <v>56</v>
@@ -18533,7 +17953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" ht="12.75" customHeight="1" spans="1:50">
+    <row r="145" spans="1:50" ht="12.75" customHeight="1">
       <c r="A145">
         <v>18347</v>
       </c>
@@ -18562,7 +17982,7 @@
         <v>77993</v>
       </c>
       <c r="J145">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K145">
         <v>4719951000176</v>
@@ -18637,7 +18057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" ht="12.75" customHeight="1" spans="1:50">
+    <row r="146" spans="1:50" ht="12.75" customHeight="1">
       <c r="A146">
         <v>18460</v>
       </c>
@@ -18666,7 +18086,7 @@
         <v>77997</v>
       </c>
       <c r="J146">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K146">
         <v>4719951000176</v>
@@ -18741,7 +18161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" ht="12.75" customHeight="1" spans="1:50">
+    <row r="147" spans="1:50" ht="12.75" customHeight="1">
       <c r="A147">
         <v>18487</v>
       </c>
@@ -18770,7 +18190,7 @@
         <v>78001</v>
       </c>
       <c r="J147">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K147">
         <v>4719951000176</v>
@@ -18845,7 +18265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" ht="12.75" customHeight="1" spans="1:50">
+    <row r="148" spans="1:50" ht="12.75" customHeight="1">
       <c r="A148" s="10">
         <v>0</v>
       </c>
@@ -18874,7 +18294,7 @@
         <v>78008</v>
       </c>
       <c r="J148" s="10">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K148" s="10">
         <v>4719951000176</v>
@@ -18925,7 +18345,7 @@
         <v>315220050967692</v>
       </c>
       <c r="AE148" s="12">
-        <v>44911.4513078704</v>
+        <v>44911.451307870397</v>
       </c>
       <c r="AF148" s="10">
         <v>315220051007788</v>
@@ -18963,7 +18383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" ht="12.75" customHeight="1" spans="1:50">
+    <row r="149" spans="1:50" ht="12.75" customHeight="1">
       <c r="A149">
         <v>18474</v>
       </c>
@@ -18992,7 +18412,7 @@
         <v>78011</v>
       </c>
       <c r="J149">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K149">
         <v>4719951000176</v>
@@ -19061,7 +18481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" ht="12.75" customHeight="1" spans="1:50">
+    <row r="150" spans="1:50" ht="12.75" customHeight="1">
       <c r="A150" s="5">
         <v>18468</v>
       </c>
@@ -19090,7 +18510,7 @@
         <v>78017</v>
       </c>
       <c r="J150" s="5">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K150" s="5">
         <v>4719951000176</v>
@@ -19181,7 +18601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" ht="12.75" customHeight="1" spans="1:50">
+    <row r="151" spans="1:50" ht="12.75" customHeight="1">
       <c r="A151">
         <v>18373</v>
       </c>
@@ -19210,7 +18630,7 @@
         <v>78019</v>
       </c>
       <c r="J151">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K151">
         <v>4719951000176</v>
@@ -19285,7 +18705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" ht="12.75" customHeight="1" spans="1:50">
+    <row r="152" spans="1:50" ht="12.75" customHeight="1">
       <c r="A152">
         <v>18237</v>
       </c>
@@ -19314,7 +18734,7 @@
         <v>78022</v>
       </c>
       <c r="J152">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K152">
         <v>4719951000176</v>
@@ -19383,7 +18803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" ht="12.75" customHeight="1" spans="1:50">
+    <row r="153" spans="1:50" ht="12.75" customHeight="1">
       <c r="A153">
         <v>18241</v>
       </c>
@@ -19412,7 +18832,7 @@
         <v>78023</v>
       </c>
       <c r="J153">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K153">
         <v>4719951000176</v>
@@ -19481,7 +18901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" ht="12.75" customHeight="1" spans="1:50">
+    <row r="154" spans="1:50" ht="12.75" customHeight="1">
       <c r="A154">
         <v>18343</v>
       </c>
@@ -19510,7 +18930,7 @@
         <v>78027</v>
       </c>
       <c r="J154">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K154">
         <v>4719951000176</v>
@@ -19585,7 +19005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" ht="12.75" customHeight="1" spans="1:50">
+    <row r="155" spans="1:50" ht="12.75" customHeight="1">
       <c r="A155">
         <v>18526</v>
       </c>
@@ -19614,7 +19034,7 @@
         <v>78031</v>
       </c>
       <c r="J155">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K155">
         <v>4719951000176</v>
@@ -19683,7 +19103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" ht="12.75" customHeight="1" spans="1:50">
+    <row r="156" spans="1:50" ht="12.75" customHeight="1">
       <c r="A156" s="6">
         <v>18257</v>
       </c>
@@ -19712,7 +19132,7 @@
         <v>78033</v>
       </c>
       <c r="J156">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K156">
         <v>4719951000176</v>
@@ -19757,7 +19177,7 @@
         <v>315220051088677</v>
       </c>
       <c r="AE156" s="9">
-        <v>44911.7554166667</v>
+        <v>44911.755416666703</v>
       </c>
       <c r="AF156">
         <v>315220051114721</v>
@@ -19784,7 +19204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" s="1" customFormat="1" ht="12.75" customHeight="1" spans="1:50">
+    <row r="157" spans="1:50" s="1" customFormat="1" ht="12.75" customHeight="1">
       <c r="A157">
         <v>18475</v>
       </c>
@@ -19813,7 +19233,7 @@
         <v>78035</v>
       </c>
       <c r="J157">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K157">
         <v>4719951000176</v>
@@ -19894,7 +19314,7 @@
         <v>44911</v>
       </c>
       <c r="AU157">
-        <v>1.5230104719951e+43</v>
+        <v>1.5230104719950999E+43</v>
       </c>
       <c r="AV157" t="s">
         <v>56</v>
@@ -19904,7 +19324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" ht="12.75" customHeight="1" spans="1:50">
+    <row r="158" spans="1:50" ht="12.75" customHeight="1">
       <c r="A158">
         <v>18232</v>
       </c>
@@ -19933,7 +19353,7 @@
         <v>78038</v>
       </c>
       <c r="J158">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K158">
         <v>4719951000176</v>
@@ -20008,7 +19428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" ht="12.75" customHeight="1" spans="1:50">
+    <row r="159" spans="1:50" ht="12.75" customHeight="1">
       <c r="A159">
         <v>18376</v>
       </c>
@@ -20037,7 +19457,7 @@
         <v>78045</v>
       </c>
       <c r="J159">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K159">
         <v>4719951000176</v>
@@ -20112,7 +19532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" ht="12.75" customHeight="1" spans="1:50">
+    <row r="160" spans="1:50" ht="12.75" customHeight="1">
       <c r="A160">
         <v>18378</v>
       </c>
@@ -20141,7 +19561,7 @@
         <v>78046</v>
       </c>
       <c r="J160">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K160">
         <v>4719951000176</v>
@@ -20216,7 +19636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" ht="12.75" customHeight="1" spans="1:50">
+    <row r="161" spans="1:50" ht="12.75" customHeight="1">
       <c r="A161">
         <v>18377</v>
       </c>
@@ -20245,7 +19665,7 @@
         <v>78047</v>
       </c>
       <c r="J161">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K161">
         <v>4719951000176</v>
@@ -20320,7 +19740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" ht="12.75" customHeight="1" spans="1:50">
+    <row r="162" spans="1:50" ht="12.75" customHeight="1">
       <c r="A162">
         <v>18375</v>
       </c>
@@ -20349,7 +19769,7 @@
         <v>78048</v>
       </c>
       <c r="J162">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K162">
         <v>4719951000176</v>
@@ -20424,7 +19844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" ht="12.75" customHeight="1" spans="1:50">
+    <row r="163" spans="1:50" ht="12.75" customHeight="1">
       <c r="A163">
         <v>18379</v>
       </c>
@@ -20453,7 +19873,7 @@
         <v>78050</v>
       </c>
       <c r="J163">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K163">
         <v>4719951000176</v>
@@ -20528,7 +19948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" ht="12.75" customHeight="1" spans="1:50">
+    <row r="164" spans="1:50" ht="12.75" customHeight="1">
       <c r="A164">
         <v>18416</v>
       </c>
@@ -20557,7 +19977,7 @@
         <v>78051</v>
       </c>
       <c r="J164">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K164">
         <v>4719951000176</v>
@@ -20623,7 +20043,7 @@
         <v>44911</v>
       </c>
       <c r="AU164">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="AV164" t="s">
         <v>56</v>
@@ -20632,7 +20052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" ht="12.75" customHeight="1" spans="1:50">
+    <row r="165" spans="1:50" ht="12.75" customHeight="1">
       <c r="A165">
         <v>18374</v>
       </c>
@@ -20661,7 +20081,7 @@
         <v>78052</v>
       </c>
       <c r="J165">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K165">
         <v>4719951000176</v>
@@ -20736,7 +20156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" ht="12.75" customHeight="1" spans="1:50">
+    <row r="166" spans="1:50" ht="12.75" customHeight="1">
       <c r="A166">
         <v>18380</v>
       </c>
@@ -20765,7 +20185,7 @@
         <v>78053</v>
       </c>
       <c r="J166">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K166">
         <v>4719951000176</v>
@@ -20840,7 +20260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" ht="12.75" customHeight="1" spans="1:50">
+    <row r="167" spans="1:50" ht="12.75" customHeight="1">
       <c r="A167" s="10">
         <v>18400</v>
       </c>
@@ -20869,7 +20289,7 @@
         <v>78063</v>
       </c>
       <c r="J167" s="10">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K167" s="10">
         <v>4719951000176</v>
@@ -20916,7 +20336,7 @@
         <v>315220051331721</v>
       </c>
       <c r="AE167" s="12">
-        <v>44914.4550462963</v>
+        <v>44914.455046296302</v>
       </c>
       <c r="AF167" s="10">
         <v>315220051354148</v>
@@ -20954,7 +20374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" ht="12.75" customHeight="1" spans="1:50">
+    <row r="168" spans="1:50" ht="12.75" customHeight="1">
       <c r="A168">
         <v>18506</v>
       </c>
@@ -20983,7 +20403,7 @@
         <v>78066</v>
       </c>
       <c r="J168">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K168">
         <v>4719951000176</v>
@@ -21052,7 +20472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" ht="12.75" customHeight="1" spans="1:50">
+    <row r="169" spans="1:50" ht="12.75" customHeight="1">
       <c r="A169">
         <v>18521</v>
       </c>
@@ -21081,7 +20501,7 @@
         <v>78067</v>
       </c>
       <c r="J169">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K169">
         <v>4719951000176</v>
@@ -21150,7 +20570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" ht="12.75" customHeight="1" spans="1:50">
+    <row r="170" spans="1:50" ht="12.75" customHeight="1">
       <c r="A170" s="5">
         <v>18504</v>
       </c>
@@ -21179,7 +20599,7 @@
         <v>78069</v>
       </c>
       <c r="J170" s="5">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K170" s="5">
         <v>4719951000176</v>
@@ -21266,7 +20686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" ht="12.75" customHeight="1" spans="1:50">
+    <row r="171" spans="1:50" ht="12.75" customHeight="1">
       <c r="A171" s="5">
         <v>18400</v>
       </c>
@@ -21295,7 +20715,7 @@
         <v>78072</v>
       </c>
       <c r="J171" s="5">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K171" s="5">
         <v>4719951000176</v>
@@ -21382,7 +20802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" ht="12.75" customHeight="1" spans="1:50">
+    <row r="172" spans="1:50" ht="12.75" customHeight="1">
       <c r="A172" s="5">
         <v>18463</v>
       </c>
@@ -21411,7 +20831,7 @@
         <v>78081</v>
       </c>
       <c r="J172" s="5">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K172" s="5">
         <v>4719951000176</v>
@@ -21496,7 +20916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" ht="12.75" customHeight="1" spans="1:50">
+    <row r="173" spans="1:50" ht="12.75" customHeight="1">
       <c r="A173" s="5">
         <v>18464</v>
       </c>
@@ -21525,7 +20945,7 @@
         <v>78083</v>
       </c>
       <c r="J173" s="5">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K173" s="5">
         <v>4719951000176</v>
@@ -21610,7 +21030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" ht="12.75" customHeight="1" spans="1:50">
+    <row r="174" spans="1:50" ht="12.75" customHeight="1">
       <c r="A174">
         <v>18432</v>
       </c>
@@ -21639,7 +21059,7 @@
         <v>78085</v>
       </c>
       <c r="J174">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K174">
         <v>4719951000176</v>
@@ -21714,7 +21134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" ht="12.75" customHeight="1" spans="1:50">
+    <row r="175" spans="1:50" ht="12.75" customHeight="1">
       <c r="A175" s="5">
         <v>18544</v>
       </c>
@@ -21743,7 +21163,7 @@
         <v>78087</v>
       </c>
       <c r="J175" s="5">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K175" s="5">
         <v>4719951000176</v>
@@ -21830,7 +21250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" ht="12.75" customHeight="1" spans="1:50">
+    <row r="176" spans="1:50" ht="12.75" customHeight="1">
       <c r="A176">
         <v>18317</v>
       </c>
@@ -21859,7 +21279,7 @@
         <v>78091</v>
       </c>
       <c r="J176">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K176">
         <v>4719951000176</v>
@@ -21928,7 +21348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" ht="12.75" customHeight="1" spans="1:50">
+    <row r="177" spans="1:50" ht="12.75" customHeight="1">
       <c r="A177">
         <v>18316</v>
       </c>
@@ -21957,7 +21377,7 @@
         <v>78092</v>
       </c>
       <c r="J177">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K177">
         <v>4719951000176</v>
@@ -22026,7 +21446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" ht="12.75" customHeight="1" spans="1:50">
+    <row r="178" spans="1:50" ht="12.75" customHeight="1">
       <c r="A178">
         <v>16972</v>
       </c>
@@ -22055,7 +21475,7 @@
         <v>78093</v>
       </c>
       <c r="J178">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K178">
         <v>4719951000176</v>
@@ -22130,7 +21550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" ht="12.75" customHeight="1" spans="1:50">
+    <row r="179" spans="1:50" ht="12.75" customHeight="1">
       <c r="A179">
         <v>18355</v>
       </c>
@@ -22159,7 +21579,7 @@
         <v>78099</v>
       </c>
       <c r="J179">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K179">
         <v>4719951000176</v>
@@ -22234,7 +21654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" ht="12.75" customHeight="1" spans="1:50">
+    <row r="180" spans="1:50" ht="12.75" customHeight="1">
       <c r="A180">
         <v>18328</v>
       </c>
@@ -22263,7 +21683,7 @@
         <v>78106</v>
       </c>
       <c r="J180">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K180">
         <v>4719951000176</v>
@@ -22332,7 +21752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" ht="12.75" customHeight="1" spans="1:50">
+    <row r="181" spans="1:50" ht="12.75" customHeight="1">
       <c r="A181">
         <v>18539</v>
       </c>
@@ -22361,7 +21781,7 @@
         <v>78107</v>
       </c>
       <c r="J181">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K181">
         <v>4719951000176</v>
@@ -22430,7 +21850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" ht="12.75" customHeight="1" spans="1:50">
+    <row r="182" spans="1:50" ht="12.75" customHeight="1">
       <c r="A182">
         <v>18546</v>
       </c>
@@ -22459,7 +21879,7 @@
         <v>78108</v>
       </c>
       <c r="J182">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K182">
         <v>4719951000176</v>
@@ -22528,7 +21948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" ht="12.75" customHeight="1" spans="1:50">
+    <row r="183" spans="1:50" ht="12.75" customHeight="1">
       <c r="A183">
         <v>18540</v>
       </c>
@@ -22557,7 +21977,7 @@
         <v>78109</v>
       </c>
       <c r="J183">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K183">
         <v>4719951000176</v>
@@ -22626,7 +22046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" ht="12.75" customHeight="1" spans="1:50">
+    <row r="184" spans="1:50" ht="12.75" customHeight="1">
       <c r="A184" s="5">
         <v>18367</v>
       </c>
@@ -22655,7 +22075,7 @@
         <v>78118</v>
       </c>
       <c r="J184" s="5">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K184" s="5">
         <v>4719951000176</v>
@@ -22742,7 +22162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" ht="12.75" customHeight="1" spans="1:50">
+    <row r="185" spans="1:50" ht="12.75" customHeight="1">
       <c r="A185" s="5">
         <v>18520</v>
       </c>
@@ -22771,7 +22191,7 @@
         <v>78119</v>
       </c>
       <c r="J185" s="5">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K185" s="5">
         <v>4719951000176</v>
@@ -22856,7 +22276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" ht="12.75" customHeight="1" spans="1:50">
+    <row r="186" spans="1:50" ht="12.75" customHeight="1">
       <c r="A186" s="5">
         <v>18522</v>
       </c>
@@ -22885,7 +22305,7 @@
         <v>78120</v>
       </c>
       <c r="J186" s="5">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K186" s="5">
         <v>4719951000176</v>
@@ -22970,7 +22390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" ht="12.75" customHeight="1" spans="1:50">
+    <row r="187" spans="1:50" ht="12.75" customHeight="1">
       <c r="A187" s="5">
         <v>18523</v>
       </c>
@@ -22999,7 +22419,7 @@
         <v>78121</v>
       </c>
       <c r="J187" s="5">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K187" s="5">
         <v>4719951000176</v>
@@ -23084,7 +22504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" ht="12.75" customHeight="1" spans="1:50">
+    <row r="188" spans="1:50" ht="12.75" customHeight="1">
       <c r="A188" s="5">
         <v>18543</v>
       </c>
@@ -23113,7 +22533,7 @@
         <v>78122</v>
       </c>
       <c r="J188" s="5">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K188" s="5">
         <v>4719951000176</v>
@@ -23198,7 +22618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" ht="12.75" customHeight="1" spans="1:50">
+    <row r="189" spans="1:50" ht="12.75" customHeight="1">
       <c r="A189" s="5">
         <v>18550</v>
       </c>
@@ -23227,7 +22647,7 @@
         <v>78123</v>
       </c>
       <c r="J189" s="5">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K189" s="5">
         <v>4719951000176</v>
@@ -23314,7 +22734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" ht="12.75" customHeight="1" spans="1:50">
+    <row r="190" spans="1:50" ht="12.75" customHeight="1">
       <c r="A190" s="5">
         <v>18499</v>
       </c>
@@ -23343,7 +22763,7 @@
         <v>78127</v>
       </c>
       <c r="J190" s="5">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K190" s="5">
         <v>4719951000176</v>
@@ -23430,7 +22850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" ht="12.75" customHeight="1" spans="1:50">
+    <row r="191" spans="1:50" ht="12.75" customHeight="1">
       <c r="A191">
         <v>18508</v>
       </c>
@@ -23459,7 +22879,7 @@
         <v>78130</v>
       </c>
       <c r="J191">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K191">
         <v>4719951000176</v>
@@ -23534,7 +22954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" ht="12.75" customHeight="1" spans="1:50">
+    <row r="192" spans="1:50" ht="12.75" customHeight="1">
       <c r="A192">
         <v>18507</v>
       </c>
@@ -23563,7 +22983,7 @@
         <v>78131</v>
       </c>
       <c r="J192">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K192">
         <v>4719951000176</v>
@@ -23638,7 +23058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" ht="12.75" customHeight="1" spans="1:50">
+    <row r="193" spans="1:50" ht="12.75" customHeight="1">
       <c r="A193" s="5">
         <v>18553</v>
       </c>
@@ -23667,7 +23087,7 @@
         <v>78135</v>
       </c>
       <c r="J193" s="5">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K193" s="5">
         <v>4719951000176</v>
@@ -23752,7 +23172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" ht="12.75" customHeight="1" spans="1:50">
+    <row r="194" spans="1:50" ht="12.75" customHeight="1">
       <c r="A194" s="6">
         <v>18448</v>
       </c>
@@ -23781,7 +23201,7 @@
         <v>78143</v>
       </c>
       <c r="J194">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K194">
         <v>4719951000176</v>
@@ -23826,7 +23246,7 @@
         <v>315220051661304</v>
       </c>
       <c r="AE194" s="9">
-        <v>44916.4880555556</v>
+        <v>44916.488055555601</v>
       </c>
       <c r="AF194">
         <v>315220051786115</v>
@@ -23853,7 +23273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" ht="12.75" customHeight="1" spans="1:50">
+    <row r="195" spans="1:50" ht="12.75" customHeight="1">
       <c r="A195" s="5">
         <v>18404</v>
       </c>
@@ -23882,7 +23302,7 @@
         <v>78145</v>
       </c>
       <c r="J195" s="5">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K195" s="5">
         <v>4719951000176</v>
@@ -23969,7 +23389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" ht="12.75" customHeight="1" spans="1:50">
+    <row r="196" spans="1:50" ht="12.75" customHeight="1">
       <c r="A196">
         <v>17629</v>
       </c>
@@ -23998,7 +23418,7 @@
         <v>78147</v>
       </c>
       <c r="J196">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K196">
         <v>4719951000176</v>
@@ -24073,7 +23493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" ht="12.75" customHeight="1" spans="1:50">
+    <row r="197" spans="1:50" ht="12.75" customHeight="1">
       <c r="A197">
         <v>18433</v>
       </c>
@@ -24102,7 +23522,7 @@
         <v>78149</v>
       </c>
       <c r="J197">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K197">
         <v>4719951000176</v>
@@ -24177,7 +23597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" ht="12.75" customHeight="1" spans="1:50">
+    <row r="198" spans="1:50" ht="12.75" customHeight="1">
       <c r="A198">
         <v>18291</v>
       </c>
@@ -24206,7 +23626,7 @@
         <v>78156</v>
       </c>
       <c r="J198">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K198">
         <v>4719951000176</v>
@@ -24275,7 +23695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" ht="12.75" customHeight="1" spans="1:50">
+    <row r="199" spans="1:50" ht="12.75" customHeight="1">
       <c r="A199">
         <v>18299</v>
       </c>
@@ -24304,7 +23724,7 @@
         <v>78157</v>
       </c>
       <c r="J199">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K199">
         <v>4719951000176</v>
@@ -24373,7 +23793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" ht="12.75" customHeight="1" spans="1:50">
+    <row r="200" spans="1:50" ht="12.75" customHeight="1">
       <c r="A200">
         <v>18415</v>
       </c>
@@ -24402,7 +23822,7 @@
         <v>78158</v>
       </c>
       <c r="J200">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K200">
         <v>4719951000176</v>
@@ -24471,7 +23891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" ht="12.75" customHeight="1" spans="1:50">
+    <row r="201" spans="1:50" ht="12.75" customHeight="1">
       <c r="A201">
         <v>18547</v>
       </c>
@@ -24500,7 +23920,7 @@
         <v>78159</v>
       </c>
       <c r="J201">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K201">
         <v>4719951000176</v>
@@ -24569,7 +23989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" ht="12.75" customHeight="1" spans="1:50">
+    <row r="202" spans="1:50" ht="12.75" customHeight="1">
       <c r="A202" s="5">
         <v>18560</v>
       </c>
@@ -24598,7 +24018,7 @@
         <v>78163</v>
       </c>
       <c r="J202" s="5">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K202" s="5">
         <v>4719951000176</v>
@@ -24685,7 +24105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" ht="12.75" customHeight="1" spans="1:50">
+    <row r="203" spans="1:50" ht="12.75" customHeight="1">
       <c r="A203" s="5">
         <v>18542</v>
       </c>
@@ -24714,7 +24134,7 @@
         <v>78175</v>
       </c>
       <c r="J203" s="5">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K203" s="5">
         <v>4719951000176</v>
@@ -24801,7 +24221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" ht="12.75" customHeight="1" spans="1:50">
+    <row r="204" spans="1:50" ht="12.75" customHeight="1">
       <c r="A204" s="5">
         <v>18584</v>
       </c>
@@ -24830,7 +24250,7 @@
         <v>78179</v>
       </c>
       <c r="J204" s="5">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K204" s="5">
         <v>4719951000176</v>
@@ -24917,7 +24337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" ht="12.75" customHeight="1" spans="1:50">
+    <row r="205" spans="1:50" ht="12.75" customHeight="1">
       <c r="A205">
         <v>18488</v>
       </c>
@@ -24946,7 +24366,7 @@
         <v>78182</v>
       </c>
       <c r="J205">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K205">
         <v>4719951000176</v>
@@ -25021,7 +24441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" ht="12.75" customHeight="1" spans="1:50">
+    <row r="206" spans="1:50" ht="12.75" customHeight="1">
       <c r="A206">
         <v>18501</v>
       </c>
@@ -25050,7 +24470,7 @@
         <v>78186</v>
       </c>
       <c r="J206">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K206">
         <v>4719951000176</v>
@@ -25125,7 +24545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" ht="12.75" customHeight="1" spans="1:50">
+    <row r="207" spans="1:50" ht="12.75" customHeight="1">
       <c r="A207">
         <v>18500</v>
       </c>
@@ -25154,7 +24574,7 @@
         <v>78187</v>
       </c>
       <c r="J207">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K207">
         <v>4719951000176</v>
@@ -25229,7 +24649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" ht="12.75" customHeight="1" spans="1:50">
+    <row r="208" spans="1:50" ht="12.75" customHeight="1">
       <c r="A208">
         <v>18502</v>
       </c>
@@ -25258,7 +24678,7 @@
         <v>78188</v>
       </c>
       <c r="J208">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K208">
         <v>4719951000176</v>
@@ -25333,7 +24753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" ht="12.75" customHeight="1" spans="1:50">
+    <row r="209" spans="1:50" ht="12.75" customHeight="1">
       <c r="A209">
         <v>18503</v>
       </c>
@@ -25362,7 +24782,7 @@
         <v>78189</v>
       </c>
       <c r="J209">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K209">
         <v>4719951000176</v>
@@ -25437,7 +24857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" ht="12.75" customHeight="1" spans="1:50">
+    <row r="210" spans="1:50" ht="12.75" customHeight="1">
       <c r="A210">
         <v>18579</v>
       </c>
@@ -25466,7 +24886,7 @@
         <v>78198</v>
       </c>
       <c r="J210">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K210">
         <v>4719951000176</v>
@@ -25535,7 +24955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" ht="12.75" customHeight="1" spans="1:50">
+    <row r="211" spans="1:50" ht="12.75" customHeight="1">
       <c r="A211">
         <v>18053</v>
       </c>
@@ -25564,7 +24984,7 @@
         <v>78202</v>
       </c>
       <c r="J211">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K211">
         <v>4719951000176</v>
@@ -25642,7 +25062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" ht="12.75" customHeight="1" spans="1:50">
+    <row r="212" spans="1:50" ht="12.75" customHeight="1">
       <c r="A212">
         <v>18054</v>
       </c>
@@ -25671,7 +25091,7 @@
         <v>78203</v>
       </c>
       <c r="J212">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K212">
         <v>4719951000176</v>
@@ -25746,7 +25166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" ht="12.75" customHeight="1" spans="1:50">
+    <row r="213" spans="1:50" ht="12.75" customHeight="1">
       <c r="A213">
         <v>18585</v>
       </c>
@@ -25775,7 +25195,7 @@
         <v>78209</v>
       </c>
       <c r="J213">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K213">
         <v>4719951000176</v>
@@ -25850,7 +25270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" ht="12.75" customHeight="1" spans="1:50">
+    <row r="214" spans="1:50" ht="12.75" customHeight="1">
       <c r="A214">
         <v>18489</v>
       </c>
@@ -25879,7 +25299,7 @@
         <v>78214</v>
       </c>
       <c r="J214">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K214">
         <v>4719951000176</v>
@@ -25954,7 +25374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" s="1" customFormat="1" ht="12.75" customHeight="1" spans="1:50">
+    <row r="215" spans="1:50" s="1" customFormat="1" ht="12.75" customHeight="1">
       <c r="A215">
         <v>18476</v>
       </c>
@@ -25983,7 +25403,7 @@
         <v>78221</v>
       </c>
       <c r="J215">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K215">
         <v>4719951000176</v>
@@ -26064,7 +25484,7 @@
         <v>44918</v>
       </c>
       <c r="AU215">
-        <v>1.5230104719951e+43</v>
+        <v>1.5230104719950999E+43</v>
       </c>
       <c r="AV215" t="s">
         <v>56</v>
@@ -26074,7 +25494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" ht="12.75" customHeight="1" spans="1:50">
+    <row r="216" spans="1:50" ht="12.75" customHeight="1">
       <c r="A216" s="5">
         <v>18592</v>
       </c>
@@ -26103,7 +25523,7 @@
         <v>78223</v>
       </c>
       <c r="J216" s="5">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K216" s="5">
         <v>4719951000176</v>
@@ -26190,7 +25610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" ht="12.75" customHeight="1" spans="1:50">
+    <row r="217" spans="1:50" ht="12.75" customHeight="1">
       <c r="A217">
         <v>18233</v>
       </c>
@@ -26219,7 +25639,7 @@
         <v>78227</v>
       </c>
       <c r="J217">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K217">
         <v>4719951000176</v>
@@ -26294,7 +25714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" ht="12.75" customHeight="1" spans="1:50">
+    <row r="218" spans="1:50" ht="12.75" customHeight="1">
       <c r="A218">
         <v>18490</v>
       </c>
@@ -26323,7 +25743,7 @@
         <v>78229</v>
       </c>
       <c r="J218">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K218">
         <v>4719951000176</v>
@@ -26389,7 +25809,7 @@
         <v>44918</v>
       </c>
       <c r="AU218">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="AV218" t="s">
         <v>56</v>
@@ -26398,7 +25818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" ht="12.75" customHeight="1" spans="1:50">
+    <row r="219" spans="1:50" ht="12.75" customHeight="1">
       <c r="A219" s="5">
         <v>18593</v>
       </c>
@@ -26427,7 +25847,7 @@
         <v>78231</v>
       </c>
       <c r="J219" s="5">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K219" s="5">
         <v>4719951000176</v>
@@ -26514,7 +25934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" ht="12.75" customHeight="1" spans="1:50">
+    <row r="220" spans="1:50" ht="12.75" customHeight="1">
       <c r="A220" s="5">
         <v>18594</v>
       </c>
@@ -26543,7 +25963,7 @@
         <v>78235</v>
       </c>
       <c r="J220" s="5">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K220" s="5">
         <v>4719951000176</v>
@@ -26634,7 +26054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" ht="12.75" customHeight="1" spans="1:50">
+    <row r="221" spans="1:50" ht="12.75" customHeight="1">
       <c r="A221" s="5">
         <v>18595</v>
       </c>
@@ -26663,7 +26083,7 @@
         <v>78237</v>
       </c>
       <c r="J221" s="5">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K221" s="5">
         <v>4719951000176</v>
@@ -26754,7 +26174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" ht="12.75" customHeight="1" spans="1:50">
+    <row r="222" spans="1:50" ht="12.75" customHeight="1">
       <c r="A222">
         <v>18348</v>
       </c>
@@ -26783,7 +26203,7 @@
         <v>78239</v>
       </c>
       <c r="J222">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K222">
         <v>4719951000176</v>
@@ -26858,7 +26278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" ht="12.75" customHeight="1" spans="1:50">
+    <row r="223" spans="1:50" ht="12.75" customHeight="1">
       <c r="A223" s="5">
         <v>18596</v>
       </c>
@@ -26887,7 +26307,7 @@
         <v>78241</v>
       </c>
       <c r="J223" s="5">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K223" s="5">
         <v>4719951000176</v>
@@ -26978,7 +26398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" ht="12.75" customHeight="1" spans="1:50">
+    <row r="224" spans="1:50" ht="12.75" customHeight="1">
       <c r="A224">
         <v>18587</v>
       </c>
@@ -27007,7 +26427,7 @@
         <v>78245</v>
       </c>
       <c r="J224">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K224">
         <v>4719951000176</v>
@@ -27076,7 +26496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" ht="12.75" customHeight="1" spans="1:50">
+    <row r="225" spans="1:50" ht="12.75" customHeight="1">
       <c r="A225">
         <v>18588</v>
       </c>
@@ -27105,7 +26525,7 @@
         <v>78246</v>
       </c>
       <c r="J225">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K225">
         <v>4719951000176</v>
@@ -27174,7 +26594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" ht="12.75" customHeight="1" spans="1:50">
+    <row r="226" spans="1:50" ht="12.75" customHeight="1">
       <c r="A226">
         <v>18589</v>
       </c>
@@ -27203,7 +26623,7 @@
         <v>78247</v>
       </c>
       <c r="J226">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K226">
         <v>4719951000176</v>
@@ -27272,7 +26692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" ht="12.75" customHeight="1" spans="1:50">
+    <row r="227" spans="1:50" ht="12.75" customHeight="1">
       <c r="A227" s="5">
         <v>18519</v>
       </c>
@@ -27301,7 +26721,7 @@
         <v>78254</v>
       </c>
       <c r="J227" s="5">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K227" s="5">
         <v>4719951000176</v>
@@ -27392,7 +26812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" ht="12.75" customHeight="1" spans="1:50">
+    <row r="228" spans="1:50" ht="12.75" customHeight="1">
       <c r="A228" s="5">
         <v>18517</v>
       </c>
@@ -27421,7 +26841,7 @@
         <v>78255</v>
       </c>
       <c r="J228" s="5">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K228" s="5">
         <v>4719951000176</v>
@@ -27510,7 +26930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" ht="12.75" customHeight="1" spans="1:50">
+    <row r="229" spans="1:50" ht="12.75" customHeight="1">
       <c r="A229">
         <v>18541</v>
       </c>
@@ -27539,7 +26959,7 @@
         <v>78256</v>
       </c>
       <c r="J229">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K229">
         <v>4719951000176</v>
@@ -27617,7 +27037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" ht="12.75" customHeight="1" spans="1:50">
+    <row r="230" spans="1:50" ht="12.75" customHeight="1">
       <c r="A230" s="5">
         <v>18401</v>
       </c>
@@ -27646,7 +27066,7 @@
         <v>78257</v>
       </c>
       <c r="J230" s="5">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K230" s="5">
         <v>4719951000176</v>
@@ -27735,7 +27155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" ht="12.75" customHeight="1" spans="1:50">
+    <row r="231" spans="1:50" ht="12.75" customHeight="1">
       <c r="A231" s="5">
         <v>18574</v>
       </c>
@@ -27764,7 +27184,7 @@
         <v>78258</v>
       </c>
       <c r="J231" s="5">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K231" s="5">
         <v>4719951000176</v>
@@ -27853,7 +27273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" ht="12.75" customHeight="1" spans="1:50">
+    <row r="232" spans="1:50" ht="12.75" customHeight="1">
       <c r="A232" s="5">
         <v>18573</v>
       </c>
@@ -27882,7 +27302,7 @@
         <v>78259</v>
       </c>
       <c r="J232" s="5">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K232" s="5">
         <v>4719951000176</v>
@@ -27971,7 +27391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" ht="12.75" customHeight="1" spans="1:50">
+    <row r="233" spans="1:50" ht="12.75" customHeight="1">
       <c r="A233" s="5">
         <v>18586</v>
       </c>
@@ -28000,7 +27420,7 @@
         <v>78261</v>
       </c>
       <c r="J233" s="5">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K233" s="5">
         <v>4719951000176</v>
@@ -28085,7 +27505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" ht="12.75" customHeight="1" spans="1:50">
+    <row r="234" spans="1:50" ht="12.75" customHeight="1">
       <c r="A234">
         <v>18582</v>
       </c>
@@ -28114,7 +27534,7 @@
         <v>78264</v>
       </c>
       <c r="J234">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K234">
         <v>4719951000176</v>
@@ -28192,7 +27612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" ht="12.75" customHeight="1" spans="1:50">
+    <row r="235" spans="1:50" ht="12.75" customHeight="1">
       <c r="A235">
         <v>18583</v>
       </c>
@@ -28221,7 +27641,7 @@
         <v>78265</v>
       </c>
       <c r="J235">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K235">
         <v>4719951000176</v>
@@ -28299,7 +27719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" ht="12.75" customHeight="1" spans="1:50">
+    <row r="236" spans="1:50" ht="12.75" customHeight="1">
       <c r="A236">
         <v>18532</v>
       </c>
@@ -28328,7 +27748,7 @@
         <v>78272</v>
       </c>
       <c r="J236">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K236">
         <v>4719951000176</v>
@@ -28403,7 +27823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" ht="12.75" customHeight="1" spans="1:50">
+    <row r="237" spans="1:50" ht="12.75" customHeight="1">
       <c r="A237" s="5">
         <v>18600</v>
       </c>
@@ -28432,7 +27852,7 @@
         <v>78274</v>
       </c>
       <c r="J237" s="5">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K237" s="5">
         <v>4719951000176</v>
@@ -28519,7 +27939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" ht="12.75" customHeight="1" spans="1:50">
+    <row r="238" spans="1:50" ht="12.75" customHeight="1">
       <c r="A238" s="5">
         <v>18601</v>
       </c>
@@ -28548,7 +27968,7 @@
         <v>78275</v>
       </c>
       <c r="J238" s="5">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K238" s="5">
         <v>4719951000176</v>
@@ -28635,7 +28055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" ht="12.75" customHeight="1" spans="1:50">
+    <row r="239" spans="1:50" ht="12.75" customHeight="1">
       <c r="A239" s="5">
         <v>18602</v>
       </c>
@@ -28664,7 +28084,7 @@
         <v>78276</v>
       </c>
       <c r="J239" s="5">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K239" s="5">
         <v>4719951000176</v>
@@ -28751,7 +28171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" ht="12.75" customHeight="1" spans="1:50">
+    <row r="240" spans="1:50" ht="12.75" customHeight="1">
       <c r="A240" s="5">
         <v>18604</v>
       </c>
@@ -28780,7 +28200,7 @@
         <v>78277</v>
       </c>
       <c r="J240" s="5">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K240" s="5">
         <v>4719951000176</v>
@@ -28867,7 +28287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" ht="12.75" customHeight="1" spans="1:50">
+    <row r="241" spans="1:50" ht="12.75" customHeight="1">
       <c r="A241">
         <v>18226</v>
       </c>
@@ -28896,7 +28316,7 @@
         <v>78281</v>
       </c>
       <c r="J241">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K241">
         <v>4719951000176</v>
@@ -28971,7 +28391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" ht="12.75" customHeight="1" spans="1:50">
+    <row r="242" spans="1:50" ht="12.75" customHeight="1">
       <c r="A242">
         <v>17912</v>
       </c>
@@ -29000,7 +28420,7 @@
         <v>78283</v>
       </c>
       <c r="J242">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K242">
         <v>4719951000176</v>
@@ -29069,7 +28489,7 @@
         <v>3532.5</v>
       </c>
     </row>
-    <row r="243" ht="12.75" customHeight="1" spans="1:50">
+    <row r="243" spans="1:50" ht="12.75" customHeight="1">
       <c r="A243">
         <v>18580</v>
       </c>
@@ -29098,7 +28518,7 @@
         <v>78288</v>
       </c>
       <c r="J243">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K243">
         <v>4719951000176</v>
@@ -29173,7 +28593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" ht="12.75" customHeight="1" spans="1:50">
+    <row r="244" spans="1:50" ht="12.75" customHeight="1">
       <c r="A244">
         <v>18581</v>
       </c>
@@ -29202,7 +28622,7 @@
         <v>78289</v>
       </c>
       <c r="J244">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K244">
         <v>4719951000176</v>
@@ -29277,7 +28697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" ht="12.75" customHeight="1" spans="1:50">
+    <row r="245" spans="1:50" ht="12.75" customHeight="1">
       <c r="A245">
         <v>18564</v>
       </c>
@@ -29306,7 +28726,7 @@
         <v>78297</v>
       </c>
       <c r="J245">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K245">
         <v>4719951000176</v>
@@ -29381,7 +28801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" ht="12.75" customHeight="1" spans="1:50">
+    <row r="246" spans="1:50" ht="12.75" customHeight="1">
       <c r="A246">
         <v>18575</v>
       </c>
@@ -29410,7 +28830,7 @@
         <v>78299</v>
       </c>
       <c r="J246">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K246">
         <v>4719951000176</v>
@@ -29485,7 +28905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" ht="12.75" customHeight="1" spans="1:50">
+    <row r="247" spans="1:50" ht="12.75" customHeight="1">
       <c r="A247">
         <v>18551</v>
       </c>
@@ -29514,7 +28934,7 @@
         <v>78300</v>
       </c>
       <c r="J247">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K247">
         <v>4719951000176</v>
@@ -29592,7 +29012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" ht="12.75" customHeight="1" spans="1:50">
+    <row r="248" spans="1:50" ht="12.75" customHeight="1">
       <c r="A248">
         <v>18534</v>
       </c>
@@ -29621,7 +29041,7 @@
         <v>78301</v>
       </c>
       <c r="J248">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K248">
         <v>4719951000176</v>
@@ -29696,7 +29116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" ht="12.75" customHeight="1" spans="1:50">
+    <row r="249" spans="1:50" ht="12.75" customHeight="1">
       <c r="A249">
         <v>17953</v>
       </c>
@@ -29725,7 +29145,7 @@
         <v>78303</v>
       </c>
       <c r="J249">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K249">
         <v>4719951000176</v>
@@ -29800,7 +29220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" ht="12.75" customHeight="1" spans="1:50">
+    <row r="250" spans="1:50" ht="12.75" customHeight="1">
       <c r="A250">
         <v>18272</v>
       </c>
@@ -29829,7 +29249,7 @@
         <v>78305</v>
       </c>
       <c r="J250">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K250">
         <v>4719951000176</v>
@@ -29904,7 +29324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" ht="12.75" customHeight="1" spans="1:50">
+    <row r="251" spans="1:50" ht="12.75" customHeight="1">
       <c r="A251" s="5">
         <v>18615</v>
       </c>
@@ -29933,7 +29353,7 @@
         <v>78307</v>
       </c>
       <c r="J251" s="5">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K251" s="5">
         <v>4719951000176</v>
@@ -30024,7 +29444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" ht="12.75" customHeight="1" spans="1:50">
+    <row r="252" spans="1:50" ht="12.75" customHeight="1">
       <c r="A252">
         <v>18571</v>
       </c>
@@ -30053,7 +29473,7 @@
         <v>78309</v>
       </c>
       <c r="J252">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K252">
         <v>4719951000176</v>
@@ -30128,7 +29548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" ht="12.75" customHeight="1" spans="1:50">
+    <row r="253" spans="1:50" ht="12.75" customHeight="1">
       <c r="A253">
         <v>18597</v>
       </c>
@@ -30157,7 +29577,7 @@
         <v>78313</v>
       </c>
       <c r="J253">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K253">
         <v>4719951000176</v>
@@ -30226,7 +29646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" ht="12.75" customHeight="1" spans="1:50">
+    <row r="254" spans="1:50" ht="12.75" customHeight="1">
       <c r="A254">
         <v>18598</v>
       </c>
@@ -30255,7 +29675,7 @@
         <v>78314</v>
       </c>
       <c r="J254">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K254">
         <v>4719951000176</v>
@@ -30324,7 +29744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" ht="12.75" customHeight="1" spans="1:50">
+    <row r="255" spans="1:50" ht="12.75" customHeight="1">
       <c r="A255">
         <v>18195</v>
       </c>
@@ -30353,7 +29773,7 @@
         <v>78315</v>
       </c>
       <c r="J255">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K255">
         <v>4719951000176</v>
@@ -30428,7 +29848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" ht="12.75" customHeight="1" spans="1:50">
+    <row r="256" spans="1:50" ht="12.75" customHeight="1">
       <c r="A256" s="5">
         <v>18606</v>
       </c>
@@ -30457,7 +29877,7 @@
         <v>78320</v>
       </c>
       <c r="J256" s="5">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K256" s="5">
         <v>4719951000176</v>
@@ -30542,7 +29962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" ht="12.75" customHeight="1" spans="1:50">
+    <row r="257" spans="1:50" ht="12.75" customHeight="1">
       <c r="A257" s="5">
         <v>18607</v>
       </c>
@@ -30571,7 +29991,7 @@
         <v>78321</v>
       </c>
       <c r="J257" s="5">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K257" s="5">
         <v>4719951000176</v>
@@ -30656,7 +30076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" ht="12.75" customHeight="1" spans="1:50">
+    <row r="258" spans="1:50" ht="12.75" customHeight="1">
       <c r="A258" s="5">
         <v>18599</v>
       </c>
@@ -30685,7 +30105,7 @@
         <v>78323</v>
       </c>
       <c r="J258" s="5">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K258" s="5">
         <v>4719951000176</v>
@@ -30770,7 +30190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" ht="12.75" customHeight="1" spans="1:50">
+    <row r="259" spans="1:50" ht="12.75" customHeight="1">
       <c r="A259">
         <v>18425</v>
       </c>
@@ -30799,7 +30219,7 @@
         <v>78333</v>
       </c>
       <c r="J259">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K259">
         <v>4719951000176</v>
@@ -30874,7 +30294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" ht="12.75" customHeight="1" spans="1:50">
+    <row r="260" spans="1:50" ht="12.75" customHeight="1">
       <c r="A260">
         <v>18449</v>
       </c>
@@ -30903,7 +30323,7 @@
         <v>78334</v>
       </c>
       <c r="J260">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K260">
         <v>4719951000176</v>
@@ -30978,7 +30398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" ht="12.75" customHeight="1" spans="1:50">
+    <row r="261" spans="1:50" ht="12.75" customHeight="1">
       <c r="A261">
         <v>18426</v>
       </c>
@@ -31007,7 +30427,7 @@
         <v>78335</v>
       </c>
       <c r="J261">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K261">
         <v>4719951000176</v>
@@ -31082,7 +30502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" ht="12.75" customHeight="1" spans="1:50">
+    <row r="262" spans="1:50" ht="12.75" customHeight="1">
       <c r="A262">
         <v>18424</v>
       </c>
@@ -31111,7 +30531,7 @@
         <v>78336</v>
       </c>
       <c r="J262">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K262">
         <v>4719951000176</v>
@@ -31186,7 +30606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" ht="12.75" customHeight="1" spans="1:50">
+    <row r="263" spans="1:50" ht="12.75" customHeight="1">
       <c r="A263">
         <v>18545</v>
       </c>
@@ -31215,7 +30635,7 @@
         <v>78337</v>
       </c>
       <c r="J263">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K263">
         <v>4719951000176</v>
@@ -31290,7 +30710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" ht="12.75" customHeight="1" spans="1:50">
+    <row r="264" spans="1:50" ht="12.75" customHeight="1">
       <c r="A264">
         <v>18423</v>
       </c>
@@ -31319,7 +30739,7 @@
         <v>78341</v>
       </c>
       <c r="J264">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K264">
         <v>4719951000176</v>
@@ -31394,7 +30814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" ht="12.75" customHeight="1" spans="1:50">
+    <row r="265" spans="1:50" ht="12.75" customHeight="1">
       <c r="A265">
         <v>18621</v>
       </c>
@@ -31423,7 +30843,7 @@
         <v>78361</v>
       </c>
       <c r="J265">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K265">
         <v>4719951000176</v>
@@ -31495,7 +30915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" ht="12.75" customHeight="1" spans="1:50">
+    <row r="266" spans="1:50" ht="12.75" customHeight="1">
       <c r="A266">
         <v>18257</v>
       </c>
@@ -31524,7 +30944,7 @@
         <v>78363</v>
       </c>
       <c r="J266">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K266">
         <v>4719951000176</v>
@@ -31590,7 +31010,7 @@
         <v>44923</v>
       </c>
       <c r="AU266">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="AV266" t="s">
         <v>56</v>
@@ -31599,7 +31019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" ht="12.75" customHeight="1" spans="1:50">
+    <row r="267" spans="1:50" ht="12.75" customHeight="1">
       <c r="A267">
         <v>18527</v>
       </c>
@@ -31628,7 +31048,7 @@
         <v>78370</v>
       </c>
       <c r="J267">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K267">
         <v>4719951000176</v>
@@ -31703,7 +31123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" ht="12.75" customHeight="1" spans="1:50">
+    <row r="268" spans="1:50" ht="12.75" customHeight="1">
       <c r="A268" s="6">
         <v>18530</v>
       </c>
@@ -31732,7 +31152,7 @@
         <v>78373</v>
       </c>
       <c r="J268">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K268">
         <v>4719951000176</v>
@@ -31804,7 +31224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" ht="12.75" customHeight="1" spans="1:50">
+    <row r="269" spans="1:50" ht="12.75" customHeight="1">
       <c r="A269">
         <v>16973</v>
       </c>
@@ -31833,7 +31253,7 @@
         <v>78376</v>
       </c>
       <c r="J269">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K269">
         <v>4719951000176</v>
@@ -31908,7 +31328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" ht="12.75" customHeight="1" spans="1:50">
+    <row r="270" spans="1:50" ht="12.75" customHeight="1">
       <c r="A270">
         <v>18491</v>
       </c>
@@ -31937,7 +31357,7 @@
         <v>78392</v>
       </c>
       <c r="J270">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K270">
         <v>4719951000176</v>
@@ -32012,7 +31432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" ht="12.75" customHeight="1" spans="1:50">
+    <row r="271" spans="1:50" ht="12.75" customHeight="1">
       <c r="A271">
         <v>18633</v>
       </c>
@@ -32041,7 +31461,7 @@
         <v>78397</v>
       </c>
       <c r="J271">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K271">
         <v>4719951000176</v>
@@ -32116,7 +31536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" ht="12.75" customHeight="1" spans="1:50">
+    <row r="272" spans="1:50" ht="12.75" customHeight="1">
       <c r="A272">
         <v>18566</v>
       </c>
@@ -32145,7 +31565,7 @@
         <v>78400</v>
       </c>
       <c r="J272">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K272">
         <v>4719951000176</v>
@@ -32220,7 +31640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" ht="12.75" customHeight="1" spans="1:50">
+    <row r="273" spans="1:50" ht="12.75" customHeight="1">
       <c r="A273">
         <v>18370</v>
       </c>
@@ -32249,7 +31669,7 @@
         <v>78402</v>
       </c>
       <c r="J273">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K273">
         <v>4719951000176</v>
@@ -32324,7 +31744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" ht="12.75" customHeight="1" spans="1:50">
+    <row r="274" spans="1:50" ht="12.75" customHeight="1">
       <c r="A274">
         <v>17624</v>
       </c>
@@ -32353,7 +31773,7 @@
         <v>78404</v>
       </c>
       <c r="J274">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K274">
         <v>4719951000176</v>
@@ -32428,7 +31848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" ht="12.75" customHeight="1" spans="1:50">
+    <row r="275" spans="1:50" ht="12.75" customHeight="1">
       <c r="A275">
         <v>18565</v>
       </c>
@@ -32457,7 +31877,7 @@
         <v>78405</v>
       </c>
       <c r="J275">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K275">
         <v>4719951000176</v>
@@ -32532,7 +31952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" ht="12.75" customHeight="1" spans="1:50">
+    <row r="276" spans="1:50" ht="12.75" customHeight="1">
       <c r="A276">
         <v>18634</v>
       </c>
@@ -32561,7 +31981,7 @@
         <v>78416</v>
       </c>
       <c r="J276">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K276">
         <v>4719951000176</v>
@@ -32636,7 +32056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" ht="12.75" customHeight="1" spans="1:50">
+    <row r="277" spans="1:50" ht="12.75" customHeight="1">
       <c r="A277" s="5">
         <v>18622</v>
       </c>
@@ -32665,7 +32085,7 @@
         <v>78421</v>
       </c>
       <c r="J277" s="5">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K277" s="5">
         <v>4719951000176</v>
@@ -32750,7 +32170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" ht="12.75" customHeight="1" spans="1:50">
+    <row r="278" spans="1:50" ht="12.75" customHeight="1">
       <c r="A278">
         <v>18509</v>
       </c>
@@ -32779,7 +32199,7 @@
         <v>78423</v>
       </c>
       <c r="J278">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K278">
         <v>4719951000176</v>
@@ -32854,7 +32274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" s="1" customFormat="1" ht="12.75" customHeight="1" spans="1:50">
+    <row r="279" spans="1:50" s="1" customFormat="1" ht="12.75" customHeight="1">
       <c r="A279">
         <v>18477</v>
       </c>
@@ -32883,7 +32303,7 @@
         <v>78427</v>
       </c>
       <c r="J279">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K279">
         <v>4719951000176</v>
@@ -32970,7 +32390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" ht="12.75" customHeight="1" spans="1:50">
+    <row r="280" spans="1:50" ht="12.75" customHeight="1">
       <c r="A280">
         <v>18419</v>
       </c>
@@ -32999,7 +32419,7 @@
         <v>78434</v>
       </c>
       <c r="J280">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K280">
         <v>4719951000176</v>
@@ -33074,7 +32494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" ht="12.75" customHeight="1" spans="1:50">
+    <row r="281" spans="1:50" ht="12.75" customHeight="1">
       <c r="A281">
         <v>18417</v>
       </c>
@@ -33103,7 +32523,7 @@
         <v>78435</v>
       </c>
       <c r="J281">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K281">
         <v>4719951000176</v>
@@ -33178,7 +32598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" ht="12.75" customHeight="1" spans="1:50">
+    <row r="282" spans="1:50" ht="12.75" customHeight="1">
       <c r="A282">
         <v>18420</v>
       </c>
@@ -33207,7 +32627,7 @@
         <v>78436</v>
       </c>
       <c r="J282">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K282">
         <v>4719951000176</v>
@@ -33282,7 +32702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" ht="12.75" customHeight="1" spans="1:50">
+    <row r="283" spans="1:50" ht="12.75" customHeight="1">
       <c r="A283">
         <v>18418</v>
       </c>
@@ -33311,7 +32731,7 @@
         <v>78437</v>
       </c>
       <c r="J283">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K283">
         <v>4719951000176</v>
@@ -33386,7 +32806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" ht="12.75" customHeight="1" spans="1:50">
+    <row r="284" spans="1:50" ht="12.75" customHeight="1">
       <c r="A284">
         <v>18631</v>
       </c>
@@ -33415,7 +32835,7 @@
         <v>78441</v>
       </c>
       <c r="J284">
-        <v>1.5221204719951e+43</v>
+        <v>1.5221204719950999E+43</v>
       </c>
       <c r="K284">
         <v>4719951000176</v>
@@ -33487,652 +32907,658 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" ht="12.75" customHeight="1" spans="6:6">
+    <row r="285" spans="1:50" ht="12.75" customHeight="1">
       <c r="F285" s="11">
         <f>SUBTOTAL(9,F2:F277)</f>
-        <v>36348939.948761</v>
-      </c>
-    </row>
-    <row r="286" ht="12.75" customHeight="1" spans="6:7">
+        <v>36348939.948760986</v>
+      </c>
+    </row>
+    <row r="286" spans="1:50" ht="12.75" customHeight="1">
+      <c r="E286" s="14">
+        <v>30973</v>
+      </c>
       <c r="F286" s="8">
-        <v>6048106.99</v>
+        <v>6048106.9900000002</v>
       </c>
       <c r="G286" s="8">
         <f>F285-F286</f>
-        <v>30300832.958761</v>
-      </c>
-    </row>
-    <row r="287" ht="12.75" customHeight="1" spans="6:6">
-      <c r="F287" s="8"/>
-    </row>
-    <row r="288" ht="12.75" customHeight="1" spans="6:6">
+        <v>30300832.958760984</v>
+      </c>
+    </row>
+    <row r="287" spans="1:50" ht="12.75" customHeight="1">
+      <c r="F287" s="8">
+        <v>30973</v>
+      </c>
+    </row>
+    <row r="288" spans="1:50" ht="12.75" customHeight="1">
       <c r="F288" s="8">
         <f>SUBTOTAL(9,F29:F279)</f>
-        <v>33945681.9143372</v>
-      </c>
-    </row>
-    <row r="289" ht="12.75" customHeight="1" spans="6:6">
+        <v>33945681.914337158</v>
+      </c>
+    </row>
+    <row r="289" spans="4:7" ht="12.75" customHeight="1">
       <c r="F289" s="8">
         <f>'[1]Demonst. ICMS 12-2022 (M)'!$G$23</f>
         <v>2259390</v>
       </c>
     </row>
-    <row r="290" ht="12.75" customHeight="1" spans="6:7">
+    <row r="290" spans="4:7" ht="12.75" customHeight="1">
       <c r="F290" s="13">
         <f>F288-F289</f>
-        <v>31686291.9143372</v>
+        <v>31686291.914337158</v>
       </c>
       <c r="G290" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="291" ht="12.75" customHeight="1" spans="6:6">
+    <row r="291" spans="4:7" ht="12.75" customHeight="1">
       <c r="F291" s="8"/>
     </row>
-    <row r="292" ht="12.75" customHeight="1" spans="6:6">
+    <row r="292" spans="4:7" ht="12.75" customHeight="1">
       <c r="F292" s="8"/>
     </row>
-    <row r="293" ht="12.75" customHeight="1" spans="6:6">
+    <row r="293" spans="4:7" ht="12.75" customHeight="1">
       <c r="F293" s="8"/>
     </row>
-    <row r="294" ht="12.75" customHeight="1" spans="6:6">
+    <row r="294" spans="4:7" ht="12.75" customHeight="1">
       <c r="F294" s="8"/>
-    </row>
-    <row r="295" ht="12.75" customHeight="1" spans="6:6">
+      <c r="G294" s="15"/>
+    </row>
+    <row r="295" spans="4:7" ht="12.75" customHeight="1">
       <c r="F295" s="8"/>
     </row>
-    <row r="296" ht="12.75" customHeight="1" spans="6:6">
+    <row r="296" spans="4:7" ht="12.75" customHeight="1">
       <c r="F296" s="8"/>
     </row>
-    <row r="297" ht="12.75" customHeight="1" spans="6:6">
+    <row r="297" spans="4:7" ht="12.75" customHeight="1">
       <c r="F297" s="8"/>
     </row>
-    <row r="298" ht="12.75" customHeight="1" spans="4:6">
+    <row r="298" spans="4:7" ht="12.75" customHeight="1">
       <c r="D298" s="8"/>
       <c r="F298" s="8"/>
     </row>
-    <row r="299" ht="12.75" customHeight="1" spans="6:6">
+    <row r="299" spans="4:7" ht="12.75" customHeight="1">
       <c r="F299" s="8"/>
     </row>
-    <row r="300" ht="12.75" customHeight="1" spans="6:6">
+    <row r="300" spans="4:7" ht="12.75" customHeight="1">
       <c r="F300" s="8"/>
     </row>
-    <row r="301" ht="12.75" customHeight="1" spans="6:6">
+    <row r="301" spans="4:7" ht="12.75" customHeight="1">
       <c r="F301" s="8"/>
     </row>
-    <row r="302" ht="12.75" customHeight="1" spans="6:6">
+    <row r="302" spans="4:7" ht="12.75" customHeight="1">
       <c r="F302" s="8"/>
     </row>
-    <row r="303" ht="12.75" customHeight="1" spans="6:6">
+    <row r="303" spans="4:7" ht="12.75" customHeight="1">
       <c r="F303" s="8"/>
     </row>
-    <row r="304" ht="12.75" customHeight="1" spans="6:6">
+    <row r="304" spans="4:7" ht="12.75" customHeight="1">
       <c r="F304" s="8"/>
     </row>
-    <row r="305" ht="12.75" customHeight="1" spans="6:6">
+    <row r="305" spans="6:6" ht="12.75" customHeight="1">
       <c r="F305" s="8"/>
     </row>
-    <row r="306" ht="12.75" customHeight="1" spans="6:6">
+    <row r="306" spans="6:6" ht="12.75" customHeight="1">
       <c r="F306" s="8"/>
     </row>
-    <row r="307" ht="12.75" customHeight="1" spans="6:6">
+    <row r="307" spans="6:6" ht="12.75" customHeight="1">
       <c r="F307" s="8"/>
     </row>
-    <row r="308" ht="12.75" customHeight="1" spans="6:6">
+    <row r="308" spans="6:6" ht="12.75" customHeight="1">
       <c r="F308" s="8"/>
     </row>
-    <row r="309" ht="12.75" customHeight="1" spans="6:6">
+    <row r="309" spans="6:6" ht="12.75" customHeight="1">
       <c r="F309" s="8"/>
     </row>
-    <row r="310" ht="12.75" customHeight="1" spans="6:6">
+    <row r="310" spans="6:6" ht="12.75" customHeight="1">
       <c r="F310" s="8"/>
     </row>
-    <row r="311" ht="12.75" customHeight="1" spans="6:6">
+    <row r="311" spans="6:6" ht="12.75" customHeight="1">
       <c r="F311" s="8"/>
     </row>
-    <row r="312" ht="12.75" customHeight="1" spans="6:6">
+    <row r="312" spans="6:6" ht="12.75" customHeight="1">
       <c r="F312" s="8"/>
     </row>
-    <row r="313" ht="12.75" customHeight="1" spans="6:6">
+    <row r="313" spans="6:6" ht="12.75" customHeight="1">
       <c r="F313" s="8"/>
     </row>
-    <row r="314" ht="12.75" customHeight="1" spans="6:6">
+    <row r="314" spans="6:6" ht="12.75" customHeight="1">
       <c r="F314" s="8"/>
     </row>
-    <row r="315" ht="12.75" customHeight="1" spans="6:6">
+    <row r="315" spans="6:6" ht="12.75" customHeight="1">
       <c r="F315" s="8"/>
     </row>
-    <row r="316" ht="12.75" customHeight="1" spans="6:6">
+    <row r="316" spans="6:6" ht="12.75" customHeight="1">
       <c r="F316" s="8"/>
     </row>
-    <row r="317" ht="12.75" customHeight="1" spans="6:6">
+    <row r="317" spans="6:6" ht="12.75" customHeight="1">
       <c r="F317" s="8"/>
     </row>
-    <row r="318" ht="12.75" customHeight="1" spans="6:6">
+    <row r="318" spans="6:6" ht="12.75" customHeight="1">
       <c r="F318" s="8"/>
     </row>
-    <row r="319" ht="12.75" customHeight="1" spans="6:6">
+    <row r="319" spans="6:6" ht="12.75" customHeight="1">
       <c r="F319" s="8"/>
     </row>
-    <row r="320" ht="12.75" customHeight="1" spans="6:6">
+    <row r="320" spans="6:6" ht="12.75" customHeight="1">
       <c r="F320" s="8"/>
     </row>
-    <row r="321" ht="12.75" customHeight="1" spans="6:6">
+    <row r="321" spans="6:6" ht="12.75" customHeight="1">
       <c r="F321" s="8"/>
     </row>
-    <row r="322" ht="12.75" customHeight="1" spans="6:6">
+    <row r="322" spans="6:6" ht="12.75" customHeight="1">
       <c r="F322" s="8"/>
     </row>
-    <row r="323" ht="12.75" customHeight="1" spans="6:6">
+    <row r="323" spans="6:6" ht="12.75" customHeight="1">
       <c r="F323" s="8"/>
     </row>
-    <row r="324" ht="12.75" customHeight="1" spans="6:6">
+    <row r="324" spans="6:6" ht="12.75" customHeight="1">
       <c r="F324" s="8"/>
     </row>
-    <row r="325" ht="12.75" customHeight="1" spans="6:6">
+    <row r="325" spans="6:6" ht="12.75" customHeight="1">
       <c r="F325" s="8"/>
     </row>
-    <row r="326" ht="12.75" customHeight="1" spans="6:6">
+    <row r="326" spans="6:6" ht="12.75" customHeight="1">
       <c r="F326" s="8"/>
     </row>
-    <row r="327" ht="12.75" customHeight="1" spans="6:6">
+    <row r="327" spans="6:6" ht="12.75" customHeight="1">
       <c r="F327" s="8"/>
     </row>
-    <row r="328" ht="12.75" customHeight="1" spans="6:6">
+    <row r="328" spans="6:6" ht="12.75" customHeight="1">
       <c r="F328" s="8"/>
     </row>
-    <row r="329" ht="12.75" customHeight="1" spans="6:6">
+    <row r="329" spans="6:6" ht="12.75" customHeight="1">
       <c r="F329" s="8"/>
     </row>
-    <row r="330" ht="12.75" customHeight="1" spans="6:6">
+    <row r="330" spans="6:6" ht="12.75" customHeight="1">
       <c r="F330" s="8"/>
     </row>
-    <row r="331" ht="12.75" customHeight="1" spans="6:6">
+    <row r="331" spans="6:6" ht="12.75" customHeight="1">
       <c r="F331" s="8"/>
     </row>
-    <row r="332" ht="12.75" customHeight="1" spans="6:6">
+    <row r="332" spans="6:6" ht="12.75" customHeight="1">
       <c r="F332" s="8"/>
     </row>
-    <row r="333" ht="12.75" customHeight="1" spans="6:6">
+    <row r="333" spans="6:6" ht="12.75" customHeight="1">
       <c r="F333" s="8"/>
     </row>
-    <row r="334" ht="12.75" customHeight="1" spans="6:6">
+    <row r="334" spans="6:6" ht="12.75" customHeight="1">
       <c r="F334" s="8"/>
     </row>
-    <row r="335" ht="12.75" customHeight="1" spans="6:6">
+    <row r="335" spans="6:6" ht="12.75" customHeight="1">
       <c r="F335" s="8"/>
     </row>
-    <row r="336" ht="12.75" customHeight="1" spans="6:6">
+    <row r="336" spans="6:6" ht="12.75" customHeight="1">
       <c r="F336" s="8"/>
     </row>
-    <row r="337" ht="12.75" customHeight="1" spans="6:6">
+    <row r="337" spans="6:6" ht="12.75" customHeight="1">
       <c r="F337" s="8"/>
     </row>
-    <row r="338" ht="12.75" customHeight="1" spans="6:6">
+    <row r="338" spans="6:6" ht="12.75" customHeight="1">
       <c r="F338" s="8"/>
     </row>
-    <row r="339" ht="12.75" customHeight="1" spans="6:6">
+    <row r="339" spans="6:6" ht="12.75" customHeight="1">
       <c r="F339" s="8"/>
     </row>
-    <row r="340" ht="12.75" customHeight="1" spans="6:6">
+    <row r="340" spans="6:6" ht="12.75" customHeight="1">
       <c r="F340" s="8"/>
     </row>
-    <row r="341" ht="12.75" customHeight="1" spans="6:6">
+    <row r="341" spans="6:6" ht="12.75" customHeight="1">
       <c r="F341" s="8"/>
     </row>
-    <row r="342" ht="12.75" customHeight="1" spans="6:6">
+    <row r="342" spans="6:6" ht="12.75" customHeight="1">
       <c r="F342" s="8"/>
     </row>
-    <row r="343" ht="12.75" customHeight="1" spans="6:6">
+    <row r="343" spans="6:6" ht="12.75" customHeight="1">
       <c r="F343" s="8"/>
     </row>
-    <row r="344" ht="12.75" customHeight="1" spans="6:6">
+    <row r="344" spans="6:6" ht="12.75" customHeight="1">
       <c r="F344" s="8"/>
     </row>
-    <row r="345" ht="12.75" customHeight="1" spans="6:6">
+    <row r="345" spans="6:6" ht="12.75" customHeight="1">
       <c r="F345" s="8"/>
     </row>
-    <row r="346" ht="12.75" customHeight="1" spans="6:6">
+    <row r="346" spans="6:6" ht="12.75" customHeight="1">
       <c r="F346" s="8"/>
     </row>
-    <row r="347" ht="12.75" customHeight="1" spans="6:6">
+    <row r="347" spans="6:6" ht="12.75" customHeight="1">
       <c r="F347" s="8"/>
     </row>
-    <row r="348" ht="12.75" customHeight="1" spans="6:6">
+    <row r="348" spans="6:6" ht="12.75" customHeight="1">
       <c r="F348" s="8"/>
     </row>
-    <row r="349" ht="12.75" customHeight="1" spans="6:6">
+    <row r="349" spans="6:6" ht="12.75" customHeight="1">
       <c r="F349" s="8"/>
     </row>
-    <row r="350" ht="12.75" customHeight="1" spans="6:6">
+    <row r="350" spans="6:6" ht="12.75" customHeight="1">
       <c r="F350" s="8"/>
     </row>
-    <row r="351" ht="12.75" customHeight="1" spans="6:6">
+    <row r="351" spans="6:6" ht="12.75" customHeight="1">
       <c r="F351" s="8"/>
     </row>
-    <row r="352" ht="12.75" customHeight="1" spans="6:6">
+    <row r="352" spans="6:6" ht="12.75" customHeight="1">
       <c r="F352" s="8"/>
     </row>
-    <row r="353" ht="12.75" customHeight="1" spans="6:6">
+    <row r="353" spans="6:6" ht="12.75" customHeight="1">
       <c r="F353" s="8"/>
     </row>
-    <row r="354" ht="12.75" customHeight="1" spans="6:6">
+    <row r="354" spans="6:6" ht="12.75" customHeight="1">
       <c r="F354" s="8"/>
     </row>
-    <row r="355" ht="12.75" customHeight="1" spans="6:6">
+    <row r="355" spans="6:6" ht="12.75" customHeight="1">
       <c r="F355" s="8"/>
     </row>
-    <row r="356" ht="12.75" customHeight="1" spans="6:6">
+    <row r="356" spans="6:6" ht="12.75" customHeight="1">
       <c r="F356" s="8"/>
     </row>
-    <row r="357" ht="12.75" customHeight="1" spans="6:6">
+    <row r="357" spans="6:6" ht="12.75" customHeight="1">
       <c r="F357" s="8"/>
     </row>
-    <row r="358" ht="12.75" customHeight="1" spans="6:6">
+    <row r="358" spans="6:6" ht="12.75" customHeight="1">
       <c r="F358" s="8"/>
     </row>
-    <row r="359" ht="12.75" customHeight="1" spans="6:6">
+    <row r="359" spans="6:6" ht="12.75" customHeight="1">
       <c r="F359" s="8"/>
     </row>
-    <row r="360" ht="12.75" customHeight="1" spans="6:6">
+    <row r="360" spans="6:6" ht="12.75" customHeight="1">
       <c r="F360" s="8"/>
     </row>
-    <row r="361" ht="12.75" customHeight="1" spans="6:6">
+    <row r="361" spans="6:6" ht="12.75" customHeight="1">
       <c r="F361" s="8"/>
     </row>
-    <row r="362" ht="12.75" customHeight="1" spans="6:6">
+    <row r="362" spans="6:6" ht="12.75" customHeight="1">
       <c r="F362" s="8"/>
     </row>
-    <row r="363" ht="12.75" customHeight="1" spans="6:6">
+    <row r="363" spans="6:6" ht="12.75" customHeight="1">
       <c r="F363" s="8"/>
     </row>
-    <row r="364" ht="12.75" customHeight="1" spans="6:6">
+    <row r="364" spans="6:6" ht="12.75" customHeight="1">
       <c r="F364" s="8"/>
     </row>
-    <row r="365" ht="12.75" customHeight="1" spans="6:6">
+    <row r="365" spans="6:6" ht="12.75" customHeight="1">
       <c r="F365" s="8"/>
     </row>
-    <row r="366" ht="12.75" customHeight="1" spans="6:6">
+    <row r="366" spans="6:6" ht="12.75" customHeight="1">
       <c r="F366" s="8"/>
     </row>
-    <row r="367" ht="12.75" customHeight="1" spans="6:6">
+    <row r="367" spans="6:6" ht="12.75" customHeight="1">
       <c r="F367" s="8"/>
     </row>
-    <row r="368" ht="12.75" customHeight="1" spans="6:6">
+    <row r="368" spans="6:6" ht="12.75" customHeight="1">
       <c r="F368" s="8"/>
     </row>
-    <row r="369" ht="12.75" customHeight="1" spans="6:6">
+    <row r="369" spans="6:6" ht="12.75" customHeight="1">
       <c r="F369" s="8"/>
     </row>
-    <row r="370" ht="12.75" customHeight="1" spans="6:6">
+    <row r="370" spans="6:6" ht="12.75" customHeight="1">
       <c r="F370" s="8"/>
     </row>
-    <row r="371" ht="12.75" customHeight="1" spans="6:6">
+    <row r="371" spans="6:6" ht="12.75" customHeight="1">
       <c r="F371" s="8"/>
     </row>
-    <row r="372" ht="12.75" customHeight="1" spans="6:6">
+    <row r="372" spans="6:6" ht="12.75" customHeight="1">
       <c r="F372" s="8"/>
     </row>
-    <row r="373" ht="12.75" customHeight="1" spans="6:6">
+    <row r="373" spans="6:6" ht="12.75" customHeight="1">
       <c r="F373" s="8"/>
     </row>
-    <row r="374" ht="12.75" customHeight="1" spans="6:6">
+    <row r="374" spans="6:6" ht="12.75" customHeight="1">
       <c r="F374" s="8"/>
     </row>
-    <row r="375" ht="12.75" customHeight="1" spans="6:6">
+    <row r="375" spans="6:6" ht="12.75" customHeight="1">
       <c r="F375" s="8"/>
     </row>
-    <row r="376" ht="12.75" customHeight="1" spans="6:6">
+    <row r="376" spans="6:6" ht="12.75" customHeight="1">
       <c r="F376" s="8"/>
     </row>
-    <row r="377" ht="12.75" customHeight="1" spans="6:6">
+    <row r="377" spans="6:6" ht="12.75" customHeight="1">
       <c r="F377" s="8"/>
     </row>
-    <row r="378" ht="12.75" customHeight="1" spans="6:6">
+    <row r="378" spans="6:6" ht="12.75" customHeight="1">
       <c r="F378" s="8"/>
     </row>
-    <row r="379" ht="12.75" customHeight="1" spans="6:6">
+    <row r="379" spans="6:6" ht="12.75" customHeight="1">
       <c r="F379" s="8"/>
     </row>
-    <row r="380" ht="12.75" customHeight="1" spans="6:6">
+    <row r="380" spans="6:6" ht="12.75" customHeight="1">
       <c r="F380" s="8"/>
     </row>
-    <row r="381" ht="12.75" customHeight="1" spans="6:6">
+    <row r="381" spans="6:6" ht="12.75" customHeight="1">
       <c r="F381" s="8"/>
     </row>
-    <row r="382" ht="12.75" customHeight="1" spans="6:6">
+    <row r="382" spans="6:6" ht="12.75" customHeight="1">
       <c r="F382" s="8"/>
     </row>
-    <row r="383" ht="12.75" customHeight="1" spans="6:6">
+    <row r="383" spans="6:6" ht="12.75" customHeight="1">
       <c r="F383" s="8"/>
     </row>
-    <row r="384" ht="12.75" customHeight="1" spans="6:6">
+    <row r="384" spans="6:6" ht="12.75" customHeight="1">
       <c r="F384" s="8"/>
     </row>
-    <row r="385" ht="12.75" customHeight="1" spans="6:6">
+    <row r="385" spans="6:6" ht="12.75" customHeight="1">
       <c r="F385" s="8"/>
     </row>
-    <row r="386" ht="12.75" customHeight="1" spans="6:6">
+    <row r="386" spans="6:6" ht="12.75" customHeight="1">
       <c r="F386" s="8"/>
     </row>
-    <row r="387" ht="12.75" customHeight="1" spans="6:6">
+    <row r="387" spans="6:6" ht="12.75" customHeight="1">
       <c r="F387" s="8"/>
     </row>
-    <row r="388" ht="12.75" customHeight="1" spans="6:6">
+    <row r="388" spans="6:6" ht="12.75" customHeight="1">
       <c r="F388" s="8"/>
     </row>
-    <row r="389" ht="12.75" customHeight="1" spans="6:6">
+    <row r="389" spans="6:6" ht="12.75" customHeight="1">
       <c r="F389" s="8"/>
     </row>
-    <row r="390" ht="12.75" customHeight="1" spans="6:6">
+    <row r="390" spans="6:6" ht="12.75" customHeight="1">
       <c r="F390" s="8"/>
     </row>
-    <row r="391" ht="12.75" customHeight="1" spans="6:6">
+    <row r="391" spans="6:6" ht="12.75" customHeight="1">
       <c r="F391" s="8"/>
     </row>
-    <row r="392" ht="12.75" customHeight="1" spans="6:6">
+    <row r="392" spans="6:6" ht="12.75" customHeight="1">
       <c r="F392" s="8"/>
     </row>
-    <row r="393" ht="12.75" customHeight="1" spans="6:6">
+    <row r="393" spans="6:6" ht="12.75" customHeight="1">
       <c r="F393" s="8"/>
     </row>
-    <row r="394" ht="12.75" customHeight="1" spans="6:6">
+    <row r="394" spans="6:6" ht="12.75" customHeight="1">
       <c r="F394" s="8"/>
     </row>
-    <row r="395" ht="12.75" customHeight="1" spans="6:6">
+    <row r="395" spans="6:6" ht="12.75" customHeight="1">
       <c r="F395" s="8"/>
     </row>
-    <row r="396" ht="12.75" customHeight="1" spans="6:6">
+    <row r="396" spans="6:6" ht="12.75" customHeight="1">
       <c r="F396" s="8"/>
     </row>
-    <row r="397" ht="12.75" customHeight="1" spans="6:6">
+    <row r="397" spans="6:6" ht="12.75" customHeight="1">
       <c r="F397" s="8"/>
     </row>
-    <row r="398" ht="12.75" customHeight="1" spans="6:6">
+    <row r="398" spans="6:6" ht="12.75" customHeight="1">
       <c r="F398" s="8"/>
     </row>
-    <row r="399" ht="12.75" customHeight="1" spans="6:6">
+    <row r="399" spans="6:6" ht="12.75" customHeight="1">
       <c r="F399" s="8"/>
     </row>
-    <row r="400" ht="12.75" customHeight="1" spans="6:6">
+    <row r="400" spans="6:6" ht="12.75" customHeight="1">
       <c r="F400" s="8"/>
     </row>
-    <row r="401" ht="12.75" customHeight="1" spans="6:6">
+    <row r="401" spans="6:6" ht="12.75" customHeight="1">
       <c r="F401" s="8"/>
     </row>
-    <row r="402" ht="12.75" customHeight="1" spans="6:6">
+    <row r="402" spans="6:6" ht="12.75" customHeight="1">
       <c r="F402" s="8"/>
     </row>
-    <row r="403" ht="12.75" customHeight="1" spans="6:6">
+    <row r="403" spans="6:6" ht="12.75" customHeight="1">
       <c r="F403" s="8"/>
     </row>
-    <row r="404" ht="12.75" customHeight="1" spans="6:6">
+    <row r="404" spans="6:6" ht="12.75" customHeight="1">
       <c r="F404" s="8"/>
     </row>
-    <row r="405" ht="12.75" customHeight="1" spans="6:6">
+    <row r="405" spans="6:6" ht="12.75" customHeight="1">
       <c r="F405" s="8"/>
     </row>
-    <row r="406" ht="12.75" customHeight="1" spans="6:6">
+    <row r="406" spans="6:6" ht="12.75" customHeight="1">
       <c r="F406" s="8"/>
     </row>
-    <row r="407" ht="12.75" customHeight="1" spans="6:6">
+    <row r="407" spans="6:6" ht="12.75" customHeight="1">
       <c r="F407" s="8"/>
     </row>
-    <row r="408" ht="12.75" customHeight="1" spans="6:6">
+    <row r="408" spans="6:6" ht="12.75" customHeight="1">
       <c r="F408" s="8"/>
     </row>
-    <row r="409" ht="12.75" customHeight="1" spans="6:6">
+    <row r="409" spans="6:6" ht="12.75" customHeight="1">
       <c r="F409" s="8"/>
     </row>
-    <row r="410" ht="12.75" customHeight="1" spans="6:6">
+    <row r="410" spans="6:6" ht="12.75" customHeight="1">
       <c r="F410" s="8"/>
     </row>
-    <row r="411" ht="12.75" customHeight="1" spans="6:6">
+    <row r="411" spans="6:6" ht="12.75" customHeight="1">
       <c r="F411" s="8"/>
     </row>
-    <row r="412" ht="12.75" customHeight="1" spans="6:6">
+    <row r="412" spans="6:6" ht="12.75" customHeight="1">
       <c r="F412" s="8"/>
     </row>
-    <row r="413" ht="12.75" customHeight="1" spans="6:6">
+    <row r="413" spans="6:6" ht="12.75" customHeight="1">
       <c r="F413" s="8"/>
     </row>
-    <row r="414" ht="12.75" customHeight="1" spans="6:6">
+    <row r="414" spans="6:6" ht="12.75" customHeight="1">
       <c r="F414" s="8"/>
     </row>
-    <row r="415" ht="12.75" customHeight="1" spans="6:6">
+    <row r="415" spans="6:6" ht="12.75" customHeight="1">
       <c r="F415" s="8"/>
     </row>
-    <row r="416" ht="12.75" customHeight="1" spans="6:6">
+    <row r="416" spans="6:6" ht="12.75" customHeight="1">
       <c r="F416" s="8"/>
     </row>
-    <row r="417" ht="12.75" customHeight="1" spans="6:6">
+    <row r="417" spans="6:6" ht="12.75" customHeight="1">
       <c r="F417" s="8"/>
     </row>
-    <row r="418" ht="12.75" customHeight="1" spans="6:6">
+    <row r="418" spans="6:6" ht="12.75" customHeight="1">
       <c r="F418" s="8"/>
     </row>
-    <row r="419" ht="12.75" customHeight="1" spans="6:6">
+    <row r="419" spans="6:6" ht="12.75" customHeight="1">
       <c r="F419" s="8"/>
     </row>
-    <row r="420" ht="12.75" customHeight="1" spans="6:6">
+    <row r="420" spans="6:6" ht="12.75" customHeight="1">
       <c r="F420" s="8"/>
     </row>
-    <row r="421" ht="12.75" customHeight="1" spans="6:6">
+    <row r="421" spans="6:6" ht="12.75" customHeight="1">
       <c r="F421" s="8"/>
     </row>
-    <row r="422" ht="12.75" customHeight="1" spans="6:6">
+    <row r="422" spans="6:6" ht="12.75" customHeight="1">
       <c r="F422" s="8"/>
     </row>
-    <row r="423" ht="12.75" customHeight="1" spans="6:6">
+    <row r="423" spans="6:6" ht="12.75" customHeight="1">
       <c r="F423" s="8"/>
     </row>
-    <row r="424" ht="12.75" customHeight="1" spans="6:6">
+    <row r="424" spans="6:6" ht="12.75" customHeight="1">
       <c r="F424" s="8"/>
     </row>
-    <row r="425" ht="12.75" customHeight="1" spans="6:6">
+    <row r="425" spans="6:6" ht="12.75" customHeight="1">
       <c r="F425" s="8"/>
     </row>
-    <row r="426" ht="12.75" customHeight="1" spans="6:6">
+    <row r="426" spans="6:6" ht="12.75" customHeight="1">
       <c r="F426" s="8"/>
     </row>
-    <row r="427" ht="12.75" customHeight="1" spans="6:6">
+    <row r="427" spans="6:6" ht="12.75" customHeight="1">
       <c r="F427" s="8"/>
     </row>
-    <row r="428" ht="12.75" customHeight="1" spans="6:6">
+    <row r="428" spans="6:6" ht="12.75" customHeight="1">
       <c r="F428" s="8"/>
     </row>
-    <row r="429" ht="12.75" customHeight="1" spans="6:6">
+    <row r="429" spans="6:6" ht="12.75" customHeight="1">
       <c r="F429" s="8"/>
     </row>
-    <row r="430" ht="12.75" customHeight="1" spans="6:6">
+    <row r="430" spans="6:6" ht="12.75" customHeight="1">
       <c r="F430" s="8"/>
     </row>
-    <row r="431" ht="12.75" customHeight="1" spans="6:6">
+    <row r="431" spans="6:6" ht="12.75" customHeight="1">
       <c r="F431" s="8"/>
     </row>
-    <row r="432" ht="12.75" customHeight="1" spans="6:6">
+    <row r="432" spans="6:6" ht="12.75" customHeight="1">
       <c r="F432" s="8"/>
     </row>
-    <row r="433" ht="12.75" customHeight="1" spans="6:6">
+    <row r="433" spans="6:6" ht="12.75" customHeight="1">
       <c r="F433" s="8"/>
     </row>
-    <row r="434" ht="12.75" customHeight="1" spans="6:6">
+    <row r="434" spans="6:6" ht="12.75" customHeight="1">
       <c r="F434" s="8"/>
     </row>
-    <row r="435" ht="12.75" customHeight="1" spans="6:6">
+    <row r="435" spans="6:6" ht="12.75" customHeight="1">
       <c r="F435" s="8"/>
     </row>
-    <row r="436" ht="12.75" customHeight="1" spans="6:6">
+    <row r="436" spans="6:6" ht="12.75" customHeight="1">
       <c r="F436" s="8"/>
     </row>
-    <row r="437" ht="12.75" customHeight="1" spans="6:6">
+    <row r="437" spans="6:6" ht="12.75" customHeight="1">
       <c r="F437" s="8"/>
     </row>
-    <row r="438" ht="12.75" customHeight="1" spans="6:6">
+    <row r="438" spans="6:6" ht="12.75" customHeight="1">
       <c r="F438" s="8"/>
     </row>
-    <row r="439" ht="12.75" customHeight="1" spans="6:6">
+    <row r="439" spans="6:6" ht="12.75" customHeight="1">
       <c r="F439" s="8"/>
     </row>
-    <row r="440" ht="12.75" customHeight="1" spans="6:6">
+    <row r="440" spans="6:6" ht="12.75" customHeight="1">
       <c r="F440" s="8"/>
     </row>
-    <row r="441" ht="12.75" customHeight="1" spans="6:6">
+    <row r="441" spans="6:6" ht="12.75" customHeight="1">
       <c r="F441" s="8"/>
     </row>
-    <row r="442" ht="12.75" customHeight="1" spans="6:6">
+    <row r="442" spans="6:6" ht="12.75" customHeight="1">
       <c r="F442" s="8"/>
     </row>
-    <row r="443" ht="12.75" customHeight="1" spans="6:6">
+    <row r="443" spans="6:6" ht="12.75" customHeight="1">
       <c r="F443" s="8"/>
     </row>
-    <row r="444" ht="12.75" customHeight="1" spans="6:6">
+    <row r="444" spans="6:6" ht="12.75" customHeight="1">
       <c r="F444" s="8"/>
     </row>
-    <row r="445" ht="12.75" customHeight="1" spans="6:6">
+    <row r="445" spans="6:6" ht="12.75" customHeight="1">
       <c r="F445" s="8"/>
     </row>
-    <row r="446" ht="12.75" customHeight="1" spans="6:6">
+    <row r="446" spans="6:6" ht="12.75" customHeight="1">
       <c r="F446" s="8"/>
     </row>
-    <row r="447" ht="12.75" customHeight="1" spans="6:6">
+    <row r="447" spans="6:6" ht="12.75" customHeight="1">
       <c r="F447" s="8"/>
     </row>
-    <row r="448" ht="12.75" customHeight="1" spans="6:6">
+    <row r="448" spans="6:6" ht="12.75" customHeight="1">
       <c r="F448" s="8"/>
     </row>
-    <row r="449" ht="12.75" customHeight="1" spans="6:6">
+    <row r="449" spans="6:6" ht="12.75" customHeight="1">
       <c r="F449" s="8"/>
     </row>
-    <row r="450" ht="12.75" customHeight="1" spans="6:6">
+    <row r="450" spans="6:6" ht="12.75" customHeight="1">
       <c r="F450" s="8"/>
     </row>
-    <row r="451" ht="12.75" customHeight="1" spans="6:6">
+    <row r="451" spans="6:6" ht="12.75" customHeight="1">
       <c r="F451" s="8"/>
     </row>
-    <row r="452" ht="12.75" customHeight="1" spans="6:6">
+    <row r="452" spans="6:6" ht="12.75" customHeight="1">
       <c r="F452" s="8"/>
     </row>
-    <row r="453" ht="12.75" customHeight="1" spans="6:6">
+    <row r="453" spans="6:6" ht="12.75" customHeight="1">
       <c r="F453" s="8"/>
     </row>
-    <row r="454" ht="12.75" customHeight="1" spans="6:6">
+    <row r="454" spans="6:6" ht="12.75" customHeight="1">
       <c r="F454" s="8"/>
     </row>
-    <row r="455" ht="12.75" customHeight="1" spans="6:6">
+    <row r="455" spans="6:6" ht="12.75" customHeight="1">
       <c r="F455" s="8"/>
     </row>
-    <row r="456" ht="12.75" customHeight="1" spans="6:6">
+    <row r="456" spans="6:6" ht="12.75" customHeight="1">
       <c r="F456" s="8"/>
     </row>
-    <row r="457" ht="12.75" customHeight="1" spans="6:6">
+    <row r="457" spans="6:6" ht="12.75" customHeight="1">
       <c r="F457" s="8"/>
     </row>
-    <row r="458" ht="12.75" customHeight="1" spans="6:6">
+    <row r="458" spans="6:6" ht="12.75" customHeight="1">
       <c r="F458" s="8"/>
     </row>
-    <row r="459" ht="12.75" customHeight="1" spans="6:6">
+    <row r="459" spans="6:6" ht="12.75" customHeight="1">
       <c r="F459" s="8"/>
     </row>
-    <row r="460" ht="12.75" customHeight="1" spans="6:6">
+    <row r="460" spans="6:6" ht="12.75" customHeight="1">
       <c r="F460" s="8"/>
     </row>
-    <row r="461" ht="12.75" customHeight="1" spans="6:6">
+    <row r="461" spans="6:6" ht="12.75" customHeight="1">
       <c r="F461" s="8"/>
     </row>
-    <row r="462" ht="12.75" customHeight="1" spans="6:6">
+    <row r="462" spans="6:6" ht="12.75" customHeight="1">
       <c r="F462" s="8"/>
     </row>
-    <row r="463" ht="12.75" customHeight="1" spans="6:6">
+    <row r="463" spans="6:6" ht="12.75" customHeight="1">
       <c r="F463" s="8"/>
     </row>
-    <row r="464" ht="12.75" customHeight="1" spans="6:6">
+    <row r="464" spans="6:6" ht="12.75" customHeight="1">
       <c r="F464" s="8"/>
     </row>
-    <row r="465" ht="12.75" customHeight="1" spans="6:6">
+    <row r="465" spans="6:6" ht="12.75" customHeight="1">
       <c r="F465" s="8"/>
     </row>
-    <row r="466" ht="12.75" customHeight="1" spans="6:6">
+    <row r="466" spans="6:6" ht="12.75" customHeight="1">
       <c r="F466" s="8"/>
     </row>
-    <row r="467" ht="12.75" customHeight="1" spans="6:6">
+    <row r="467" spans="6:6" ht="12.75" customHeight="1">
       <c r="F467" s="8"/>
     </row>
-    <row r="468" ht="12.75" customHeight="1" spans="6:6">
+    <row r="468" spans="6:6" ht="12.75" customHeight="1">
       <c r="F468" s="8"/>
     </row>
-    <row r="469" ht="12.75" customHeight="1" spans="6:6">
+    <row r="469" spans="6:6" ht="12.75" customHeight="1">
       <c r="F469" s="8"/>
     </row>
-    <row r="470" ht="12.75" customHeight="1" spans="6:6">
+    <row r="470" spans="6:6" ht="12.75" customHeight="1">
       <c r="F470" s="8"/>
     </row>
-    <row r="471" ht="12.75" customHeight="1" spans="6:6">
+    <row r="471" spans="6:6" ht="12.75" customHeight="1">
       <c r="F471" s="8"/>
     </row>
-    <row r="472" ht="12.75" customHeight="1" spans="6:6">
+    <row r="472" spans="6:6" ht="12.75" customHeight="1">
       <c r="F472" s="8"/>
     </row>
-    <row r="473" ht="12.75" customHeight="1" spans="6:6">
+    <row r="473" spans="6:6" ht="12.75" customHeight="1">
       <c r="F473" s="8"/>
     </row>
-    <row r="474" ht="12.75" customHeight="1" spans="6:6">
+    <row r="474" spans="6:6" ht="12.75" customHeight="1">
       <c r="F474" s="8"/>
     </row>
-    <row r="475" ht="12.75" customHeight="1" spans="6:6">
+    <row r="475" spans="6:6" ht="12.75" customHeight="1">
       <c r="F475" s="8"/>
     </row>
-    <row r="476" ht="12.75" customHeight="1" spans="6:6">
+    <row r="476" spans="6:6" ht="12.75" customHeight="1">
       <c r="F476" s="8"/>
     </row>
-    <row r="477" ht="12.75" customHeight="1" spans="6:6">
+    <row r="477" spans="6:6" ht="12.75" customHeight="1">
       <c r="F477" s="8"/>
     </row>
-    <row r="478" ht="12.75" customHeight="1" spans="6:6">
+    <row r="478" spans="6:6" ht="12.75" customHeight="1">
       <c r="F478" s="8"/>
     </row>
-    <row r="479" ht="12.75" customHeight="1" spans="6:6">
+    <row r="479" spans="6:6" ht="12.75" customHeight="1">
       <c r="F479" s="8"/>
     </row>
-    <row r="480" ht="12.75" customHeight="1" spans="6:6">
+    <row r="480" spans="6:6" ht="12.75" customHeight="1">
       <c r="F480" s="8"/>
     </row>
-    <row r="481" ht="12.75" customHeight="1" spans="6:6">
+    <row r="481" spans="6:6" ht="12.75" customHeight="1">
       <c r="F481" s="8"/>
     </row>
-    <row r="482" ht="12.75" customHeight="1" spans="6:6">
+    <row r="482" spans="6:6" ht="12.75" customHeight="1">
       <c r="F482" s="8"/>
     </row>
-    <row r="483" ht="12.75" customHeight="1" spans="6:6">
+    <row r="483" spans="6:6" ht="12.75" customHeight="1">
       <c r="F483" s="8"/>
     </row>
-    <row r="484" ht="12.75" customHeight="1" spans="6:6">
+    <row r="484" spans="6:6" ht="12.75" customHeight="1">
       <c r="F484" s="8"/>
     </row>
-    <row r="485" ht="12.75" customHeight="1" spans="6:6">
+    <row r="485" spans="6:6" ht="12.75" customHeight="1">
       <c r="F485" s="8"/>
     </row>
-    <row r="486" ht="12.75" customHeight="1" spans="6:6">
+    <row r="486" spans="6:6" ht="12.75" customHeight="1">
       <c r="F486" s="8"/>
     </row>
-    <row r="487" ht="12.75" customHeight="1" spans="6:6">
+    <row r="487" spans="6:6" ht="12.75" customHeight="1">
       <c r="F487" s="8"/>
     </row>
-    <row r="488" ht="12.75" customHeight="1" spans="6:6">
+    <row r="488" spans="6:6" ht="12.75" customHeight="1">
       <c r="F488" s="8"/>
     </row>
-    <row r="489" ht="12.75" customHeight="1" spans="6:6">
+    <row r="489" spans="6:6" ht="12.75" customHeight="1">
       <c r="F489" s="8"/>
     </row>
-    <row r="490" ht="12.75" customHeight="1" spans="6:6">
+    <row r="490" spans="6:6" ht="12.75" customHeight="1">
       <c r="F490" s="8"/>
     </row>
-    <row r="491" ht="12.75" customHeight="1"/>
-    <row r="492" ht="12.75" customHeight="1"/>
-    <row r="493" ht="12.75" customHeight="1"/>
-    <row r="494" ht="12.75" customHeight="1"/>
-    <row r="495" ht="12.75" customHeight="1"/>
-    <row r="496" ht="12.75" customHeight="1"/>
+    <row r="491" spans="6:6" ht="12.75" customHeight="1"/>
+    <row r="492" spans="6:6" ht="12.75" customHeight="1"/>
+    <row r="493" spans="6:6" ht="12.75" customHeight="1"/>
+    <row r="494" spans="6:6" ht="12.75" customHeight="1"/>
+    <row r="495" spans="6:6" ht="12.75" customHeight="1"/>
+    <row r="496" spans="6:6" ht="12.75" customHeight="1"/>
     <row r="497" ht="12.75" customHeight="1"/>
     <row r="498" ht="12.75" customHeight="1"/>
     <row r="499" ht="12.75" customHeight="1"/>
@@ -34638,11 +34064,8 @@
     <row r="999" ht="12.75" customHeight="1"/>
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A1:AX286">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:AX286" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="1" orientation="landscape"/>
-  <headerFooter/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>